--- a/public/importar-ejemplo.xlsx
+++ b/public/importar-ejemplo.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7507DE0F-6AAA-4B94-B1F3-6947D9F79B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Ciudades" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Ciudadess" vbProcedure="false">'Hoja 1'!$L$5:$L$29</definedName>
+    <definedName name="Ciudades">#REF!</definedName>
+    <definedName name="Ciudadess">'Hoja 1'!$L$5:$L$29</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -26,84 +40,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apellido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adherido a Sindicato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categoría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sueldo Básico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigilador General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cecilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>Adherido a Sindicato</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Sueldo Básico</t>
+  </si>
+  <si>
+    <t>Adicionales</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Vigilador General</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -111,8 +105,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -135,80 +129,55 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -267,33 +236,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="14.54"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1013" min="8" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1024" min="1014" style="0" width="11.52"/>
+    <col min="1" max="3" width="14.5703125" style="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="3"/>
+    <col min="6" max="7" width="14.5703125" style="1"/>
+    <col min="8" max="1013" width="14.5703125" hidden="1"/>
+    <col min="1014" max="1024" width="11.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -316,14 +593,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>20365456980</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -332,22 +609,22 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
+      <c r="F2" s="1">
+        <v>685000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>20365456980</v>
+      <c r="C3" s="2">
+        <v>20365456912</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -355,30 +632,25 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="1">
+        <v>685000</v>
+      </c>
+      <c r="G3" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D1003" type="list">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1003" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Si,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E1003" type="list">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E1003" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Vigilador General,Vigilador Bombero,Administrativo,Vigilador Principal,Verificador Evento,Operador de monitoreo,Guía Técnico,Instalador de elementos de seguridad electrónica,Controlador de admisión y permanencia en gral."</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/public/importar-ejemplo.xlsx
+++ b/public/importar-ejemplo.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7507DE0F-6AAA-4B94-B1F3-6947D9F79B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Escritorio\Lumar\uesevi-app\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A79E9EC-FADD-48D1-9268-CE02A376C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Nombre</t>
   </si>
@@ -77,13 +82,16 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Suma no remunerativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -258,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -404,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="14.5703125" style="1"/>
     <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
@@ -568,9 +576,10 @@
     <col min="6" max="7" width="14.5703125" style="1"/>
     <col min="8" max="1013" width="14.5703125" hidden="1"/>
     <col min="1014" max="1024" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="1025" max="1025" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -592,8 +601,11 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="AMK1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -615,8 +627,11 @@
       <c r="G2" s="1">
         <v>15000</v>
       </c>
+      <c r="AMK2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7 1025:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -637,6 +652,9 @@
       </c>
       <c r="G3" s="1">
         <v>0</v>
+      </c>
+      <c r="AMK3" s="1">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -651,6 +669,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/importar-ejemplo.xlsx
+++ b/public/importar-ejemplo.xlsx
@@ -1,36 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28803"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEF6CB8-23CC-40AB-9926-E3827BB8C394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja 1"/>
   </sheets>
   <definedNames>
     <definedName name="Ciudades">#REF!</definedName>
     <definedName name="Ciudadess">'Hoja 1'!$L$5:$L$29</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,7 +41,7 @@
     <t>Adicionales</t>
   </si>
   <si>
-    <t>Remunerativo adicional</t>
+    <t>Ad. Remunerativo</t>
   </si>
   <si>
     <t>Juan</t>
@@ -82,8 +65,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,15 +98,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,7 +112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFcccccc"/>
       </patternFill>
     </fill>
   </fills>
@@ -172,47 +150,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -223,10 +201,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -264,71 +242,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,7 +334,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -379,11 +357,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -392,13 +370,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -408,7 +386,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -417,7 +395,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -426,7 +404,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -434,10 +412,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -502,28 +480,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="1024" width="13.5703125" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="21" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="9" max="9" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="10" max="10" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="11" max="11" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="12" max="12" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="13" max="13" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="14" max="14" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="15" max="15" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="16" max="16" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="17" max="17" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="18" max="18" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="19" max="19" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="20" max="20" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="21" max="21" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="22" max="22" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="23" max="23" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="24" max="24" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="25" max="25" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="26" max="26" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="27" max="27" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="28" max="28" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="29" max="29" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="30" max="30" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="31" max="31" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="32" max="32" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="33" max="33" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="34" max="34" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="35" max="35" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="36" max="36" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="37" max="37" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="38" max="38" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="39" max="39" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="40" max="40" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="41" max="41" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="42" max="42" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="43" max="43" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="44" max="44" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="45" max="45" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="46" max="46" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="47" max="47" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="48" max="48" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="49" max="49" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="50" max="50" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="51" max="51" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="52" max="52" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="53" max="53" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="54" max="54" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="55" max="55" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="56" max="56" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="57" max="57" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="58" max="58" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="59" max="59" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="60" max="60" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="61" max="61" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="62" max="62" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="63" max="63" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="64" max="64" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="65" max="65" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="66" max="66" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="67" max="67" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="68" max="68" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="69" max="69" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="70" max="70" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="71" max="71" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="72" max="72" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="73" max="73" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="74" max="74" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="75" max="75" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="76" max="76" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="77" max="77" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="78" max="78" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="79" max="79" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="80" max="80" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="81" max="81" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="82" max="82" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="83" max="83" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="84" max="84" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="85" max="85" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="86" max="86" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="87" max="87" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="88" max="88" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="89" max="89" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="90" max="90" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="91" max="91" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="92" max="92" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="93" max="93" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="94" max="94" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="95" max="95" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="96" max="96" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="97" max="97" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="98" max="98" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="99" max="99" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="100" max="100" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="101" max="101" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="102" max="102" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="103" max="103" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="104" max="104" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="105" max="105" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="106" max="106" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="107" max="107" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="108" max="108" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="109" max="109" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="110" max="110" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="111" max="111" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="112" max="112" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="113" max="113" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="114" max="114" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="115" max="115" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="116" max="116" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="117" max="117" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="118" max="118" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="119" max="119" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="120" max="120" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="121" max="121" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="122" max="122" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="123" max="123" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="124" max="124" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="125" max="125" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="126" max="126" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="127" max="127" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="128" max="128" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="129" max="129" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="130" max="130" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="131" max="131" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="132" max="132" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="133" max="133" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="134" max="134" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="135" max="135" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="136" max="136" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="137" max="137" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="138" max="138" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="139" max="139" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="140" max="140" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="141" max="141" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="142" max="142" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="143" max="143" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="144" max="144" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="145" max="145" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="146" max="146" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="147" max="147" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="148" max="148" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="149" max="149" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="150" max="150" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="151" max="151" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="152" max="152" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="153" max="153" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="154" max="154" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="155" max="155" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="156" max="156" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="157" max="157" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="158" max="158" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="159" max="159" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="160" max="160" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="161" max="161" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="162" max="162" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="163" max="163" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="164" max="164" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="165" max="165" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="166" max="166" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="167" max="167" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="168" max="168" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="169" max="169" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="170" max="170" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="171" max="171" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="172" max="172" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="173" max="173" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="174" max="174" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="175" max="175" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="176" max="176" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="177" max="177" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="178" max="178" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="179" max="179" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="180" max="180" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="181" max="181" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="182" max="182" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="183" max="183" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="184" max="184" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="185" max="185" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="186" max="186" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="187" max="187" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="188" max="188" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="189" max="189" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="190" max="190" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="191" max="191" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="192" max="192" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="193" max="193" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="194" max="194" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="195" max="195" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="196" max="196" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="197" max="197" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="198" max="198" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="199" max="199" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="200" max="200" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="201" max="201" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="202" max="202" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="203" max="203" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="204" max="204" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="205" max="205" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="206" max="206" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="207" max="207" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="208" max="208" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="209" max="209" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="210" max="210" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="211" max="211" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="212" max="212" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="213" max="213" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="214" max="214" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="215" max="215" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="216" max="216" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="217" max="217" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="218" max="218" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="219" max="219" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="220" max="220" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="221" max="221" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="222" max="222" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="223" max="223" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="224" max="224" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="225" max="225" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="226" max="226" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="227" max="227" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="228" max="228" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="229" max="229" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="230" max="230" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="231" max="231" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="232" max="232" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="233" max="233" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="234" max="234" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="235" max="235" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="236" max="236" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="237" max="237" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="238" max="238" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="239" max="239" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="240" max="240" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="241" max="241" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="242" max="242" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="243" max="243" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="244" max="244" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="245" max="245" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="246" max="246" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="247" max="247" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="248" max="248" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="249" max="249" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="250" max="250" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="251" max="251" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="252" max="252" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="253" max="253" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="254" max="254" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="255" max="255" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="256" max="256" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="257" max="257" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="258" max="258" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="259" max="259" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="260" max="260" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="261" max="261" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="262" max="262" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="263" max="263" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="264" max="264" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="265" max="265" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="266" max="266" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="267" max="267" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="268" max="268" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="269" max="269" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="270" max="270" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="271" max="271" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="272" max="272" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="273" max="273" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="274" max="274" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="275" max="275" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="276" max="276" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="277" max="277" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="278" max="278" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="279" max="279" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="280" max="280" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="281" max="281" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="282" max="282" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="283" max="283" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="284" max="284" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="285" max="285" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="286" max="286" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="287" max="287" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="288" max="288" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="289" max="289" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="290" max="290" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="291" max="291" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="292" max="292" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="293" max="293" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="294" max="294" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="295" max="295" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="296" max="296" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="297" max="297" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="298" max="298" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="299" max="299" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="300" max="300" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="301" max="301" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="302" max="302" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="303" max="303" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="304" max="304" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="305" max="305" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="306" max="306" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="307" max="307" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="308" max="308" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="309" max="309" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="310" max="310" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="311" max="311" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="312" max="312" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="313" max="313" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="314" max="314" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="315" max="315" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="316" max="316" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="317" max="317" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="318" max="318" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="319" max="319" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="320" max="320" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="321" max="321" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="322" max="322" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="323" max="323" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="324" max="324" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="325" max="325" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="326" max="326" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="327" max="327" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="328" max="328" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="329" max="329" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="330" max="330" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="331" max="331" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="332" max="332" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="333" max="333" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="334" max="334" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="335" max="335" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="336" max="336" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="337" max="337" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="338" max="338" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="339" max="339" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="340" max="340" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="341" max="341" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="342" max="342" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="343" max="343" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="344" max="344" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="345" max="345" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="346" max="346" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="347" max="347" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="348" max="348" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="349" max="349" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="350" max="350" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="351" max="351" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="352" max="352" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="353" max="353" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="354" max="354" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="355" max="355" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="356" max="356" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="357" max="357" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="358" max="358" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="359" max="359" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="360" max="360" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="361" max="361" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="362" max="362" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="363" max="363" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="364" max="364" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="365" max="365" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="366" max="366" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="367" max="367" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="368" max="368" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="369" max="369" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="370" max="370" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="371" max="371" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="372" max="372" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="373" max="373" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="374" max="374" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="375" max="375" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="376" max="376" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="377" max="377" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="378" max="378" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="379" max="379" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="380" max="380" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="381" max="381" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="382" max="382" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="383" max="383" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="384" max="384" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="385" max="385" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="386" max="386" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="387" max="387" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="388" max="388" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="389" max="389" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="390" max="390" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="391" max="391" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="392" max="392" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="393" max="393" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="394" max="394" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="395" max="395" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="396" max="396" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="397" max="397" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="398" max="398" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="399" max="399" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="400" max="400" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="401" max="401" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="402" max="402" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="403" max="403" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="404" max="404" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="405" max="405" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="406" max="406" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="407" max="407" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="408" max="408" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="409" max="409" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="410" max="410" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="411" max="411" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="412" max="412" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="413" max="413" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="414" max="414" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="415" max="415" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="416" max="416" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="417" max="417" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="418" max="418" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="419" max="419" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="420" max="420" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="421" max="421" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="422" max="422" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="423" max="423" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="424" max="424" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="425" max="425" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="426" max="426" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="427" max="427" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="428" max="428" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="429" max="429" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="430" max="430" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="431" max="431" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="432" max="432" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="433" max="433" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="434" max="434" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="435" max="435" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="436" max="436" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="437" max="437" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="438" max="438" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="439" max="439" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="440" max="440" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="441" max="441" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="442" max="442" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="443" max="443" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="444" max="444" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="445" max="445" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="446" max="446" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="447" max="447" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="448" max="448" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="449" max="449" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="450" max="450" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="451" max="451" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="452" max="452" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="453" max="453" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="454" max="454" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="455" max="455" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="456" max="456" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="457" max="457" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="458" max="458" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="459" max="459" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="460" max="460" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="461" max="461" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="462" max="462" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="463" max="463" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="464" max="464" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="465" max="465" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="466" max="466" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="467" max="467" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="468" max="468" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="469" max="469" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="470" max="470" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="471" max="471" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="472" max="472" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="473" max="473" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="474" max="474" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="475" max="475" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="476" max="476" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="477" max="477" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="478" max="478" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="479" max="479" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="480" max="480" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="481" max="481" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="482" max="482" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="483" max="483" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="484" max="484" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="485" max="485" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="486" max="486" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="487" max="487" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="488" max="488" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="489" max="489" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="490" max="490" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="491" max="491" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="492" max="492" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="493" max="493" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="494" max="494" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="495" max="495" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="496" max="496" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="497" max="497" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="498" max="498" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="499" max="499" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="500" max="500" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="501" max="501" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="502" max="502" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="503" max="503" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="504" max="504" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="505" max="505" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="506" max="506" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="507" max="507" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="508" max="508" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="509" max="509" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="510" max="510" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="511" max="511" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="512" max="512" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="513" max="513" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="514" max="514" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="515" max="515" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="516" max="516" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="517" max="517" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="518" max="518" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="519" max="519" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="520" max="520" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="521" max="521" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="522" max="522" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="523" max="523" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="524" max="524" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="525" max="525" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="526" max="526" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="527" max="527" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="528" max="528" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="529" max="529" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="530" max="530" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="531" max="531" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="532" max="532" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="533" max="533" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="534" max="534" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="535" max="535" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="536" max="536" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="537" max="537" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="538" max="538" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="539" max="539" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="540" max="540" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="541" max="541" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="542" max="542" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="543" max="543" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="544" max="544" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="545" max="545" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="546" max="546" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="547" max="547" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="548" max="548" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="549" max="549" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="550" max="550" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="551" max="551" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="552" max="552" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="553" max="553" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="554" max="554" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="555" max="555" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="556" max="556" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="557" max="557" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="558" max="558" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="559" max="559" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="560" max="560" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="561" max="561" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="562" max="562" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="563" max="563" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="564" max="564" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="565" max="565" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="566" max="566" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="567" max="567" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="568" max="568" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="569" max="569" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="570" max="570" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="571" max="571" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="572" max="572" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="573" max="573" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="574" max="574" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="575" max="575" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="576" max="576" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="577" max="577" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="578" max="578" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="579" max="579" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="580" max="580" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="581" max="581" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="582" max="582" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="583" max="583" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="584" max="584" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="585" max="585" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="586" max="586" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="587" max="587" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="588" max="588" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="589" max="589" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="590" max="590" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="591" max="591" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="592" max="592" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="593" max="593" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="594" max="594" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="595" max="595" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="596" max="596" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="597" max="597" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="598" max="598" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="599" max="599" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="600" max="600" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="601" max="601" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="602" max="602" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="603" max="603" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="604" max="604" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="605" max="605" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="606" max="606" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="607" max="607" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="608" max="608" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="609" max="609" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="610" max="610" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="611" max="611" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="612" max="612" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="613" max="613" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="614" max="614" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="615" max="615" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="616" max="616" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="617" max="617" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="618" max="618" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="619" max="619" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="620" max="620" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="621" max="621" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="622" max="622" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="623" max="623" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="624" max="624" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="625" max="625" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="626" max="626" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="627" max="627" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="628" max="628" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="629" max="629" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="630" max="630" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="631" max="631" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="632" max="632" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="633" max="633" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="634" max="634" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="635" max="635" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="636" max="636" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="637" max="637" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="638" max="638" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="639" max="639" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="640" max="640" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="641" max="641" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="642" max="642" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="643" max="643" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="644" max="644" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="645" max="645" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="646" max="646" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="647" max="647" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="648" max="648" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="649" max="649" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="650" max="650" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="651" max="651" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="652" max="652" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="653" max="653" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="654" max="654" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="655" max="655" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="656" max="656" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="657" max="657" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="658" max="658" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="659" max="659" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="660" max="660" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="661" max="661" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="662" max="662" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="663" max="663" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="664" max="664" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="665" max="665" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="666" max="666" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="667" max="667" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="668" max="668" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="669" max="669" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="670" max="670" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="671" max="671" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="672" max="672" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="673" max="673" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="674" max="674" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="675" max="675" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="676" max="676" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="677" max="677" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="678" max="678" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="679" max="679" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="680" max="680" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="681" max="681" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="682" max="682" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="683" max="683" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="684" max="684" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="685" max="685" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="686" max="686" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="687" max="687" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="688" max="688" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="689" max="689" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="690" max="690" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="691" max="691" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="692" max="692" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="693" max="693" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="694" max="694" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="695" max="695" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="696" max="696" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="697" max="697" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="698" max="698" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="699" max="699" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="700" max="700" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="701" max="701" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="702" max="702" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="703" max="703" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="704" max="704" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="705" max="705" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="706" max="706" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="707" max="707" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="708" max="708" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="709" max="709" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="710" max="710" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="711" max="711" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="712" max="712" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="713" max="713" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="714" max="714" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="715" max="715" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="716" max="716" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="717" max="717" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="718" max="718" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="719" max="719" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="720" max="720" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="721" max="721" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="722" max="722" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="723" max="723" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="724" max="724" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="725" max="725" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="726" max="726" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="727" max="727" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="728" max="728" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="729" max="729" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="730" max="730" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="731" max="731" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="732" max="732" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="733" max="733" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="734" max="734" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="735" max="735" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="736" max="736" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="737" max="737" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="738" max="738" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="739" max="739" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="740" max="740" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="741" max="741" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="742" max="742" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="743" max="743" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="744" max="744" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="745" max="745" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="746" max="746" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="747" max="747" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="748" max="748" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="749" max="749" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="750" max="750" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="751" max="751" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="752" max="752" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="753" max="753" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="754" max="754" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="755" max="755" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="756" max="756" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="757" max="757" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="758" max="758" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="759" max="759" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="760" max="760" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="761" max="761" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="762" max="762" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="763" max="763" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="764" max="764" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="765" max="765" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="766" max="766" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="767" max="767" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="768" max="768" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="769" max="769" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="770" max="770" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="771" max="771" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="772" max="772" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="773" max="773" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="774" max="774" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="775" max="775" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="776" max="776" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="777" max="777" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="778" max="778" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="779" max="779" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="780" max="780" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="781" max="781" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="782" max="782" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="783" max="783" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="784" max="784" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="785" max="785" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="786" max="786" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="787" max="787" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="788" max="788" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="789" max="789" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="790" max="790" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="791" max="791" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="792" max="792" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="793" max="793" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="794" max="794" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="795" max="795" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="796" max="796" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="797" max="797" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="798" max="798" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="799" max="799" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="800" max="800" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="801" max="801" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="802" max="802" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="803" max="803" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="804" max="804" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="805" max="805" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="806" max="806" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="807" max="807" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="808" max="808" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="809" max="809" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="810" max="810" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="811" max="811" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="812" max="812" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="813" max="813" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="814" max="814" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="815" max="815" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="816" max="816" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="817" max="817" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="818" max="818" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="819" max="819" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="820" max="820" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="821" max="821" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="822" max="822" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="823" max="823" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="824" max="824" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="825" max="825" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="826" max="826" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="827" max="827" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="828" max="828" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="829" max="829" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="830" max="830" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="831" max="831" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="832" max="832" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="833" max="833" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="834" max="834" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="835" max="835" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="836" max="836" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="837" max="837" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="838" max="838" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="839" max="839" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="840" max="840" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="841" max="841" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="842" max="842" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="843" max="843" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="844" max="844" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="845" max="845" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="846" max="846" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="847" max="847" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="848" max="848" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="849" max="849" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="850" max="850" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="851" max="851" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="852" max="852" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="853" max="853" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="854" max="854" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="855" max="855" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="856" max="856" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="857" max="857" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="858" max="858" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="859" max="859" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="860" max="860" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="861" max="861" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="862" max="862" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="863" max="863" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="864" max="864" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="865" max="865" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="866" max="866" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="867" max="867" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="868" max="868" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="869" max="869" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="870" max="870" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="871" max="871" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="872" max="872" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="873" max="873" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="874" max="874" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="875" max="875" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="876" max="876" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="877" max="877" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="878" max="878" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="879" max="879" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="880" max="880" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="881" max="881" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="882" max="882" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="883" max="883" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="884" max="884" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="885" max="885" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="886" max="886" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="887" max="887" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="888" max="888" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="889" max="889" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="890" max="890" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="891" max="891" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="892" max="892" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="893" max="893" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="894" max="894" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="895" max="895" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="896" max="896" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="897" max="897" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="898" max="898" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="899" max="899" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="900" max="900" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="901" max="901" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="902" max="902" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="903" max="903" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="904" max="904" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="905" max="905" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="906" max="906" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="907" max="907" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="908" max="908" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="909" max="909" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="910" max="910" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="911" max="911" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="912" max="912" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="913" max="913" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="914" max="914" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="915" max="915" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="916" max="916" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="917" max="917" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="918" max="918" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="919" max="919" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="920" max="920" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="921" max="921" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="922" max="922" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="923" max="923" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="924" max="924" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="925" max="925" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="926" max="926" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="927" max="927" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="928" max="928" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="929" max="929" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="930" max="930" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="931" max="931" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="932" max="932" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="933" max="933" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="934" max="934" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="935" max="935" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="936" max="936" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="937" max="937" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="938" max="938" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="939" max="939" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="940" max="940" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="941" max="941" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="942" max="942" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="943" max="943" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="944" max="944" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="945" max="945" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="946" max="946" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="947" max="947" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="948" max="948" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="949" max="949" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="950" max="950" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="951" max="951" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="952" max="952" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="953" max="953" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="954" max="954" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="955" max="955" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="956" max="956" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="957" max="957" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="958" max="958" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="959" max="959" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="960" max="960" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="961" max="961" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="962" max="962" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="963" max="963" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="964" max="964" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="965" max="965" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="966" max="966" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="967" max="967" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="968" max="968" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="969" max="969" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="970" max="970" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="971" max="971" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="972" max="972" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="973" max="973" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="974" max="974" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="975" max="975" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="976" max="976" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="977" max="977" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="978" max="978" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="979" max="979" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="980" max="980" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="981" max="981" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="982" max="982" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="983" max="983" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="984" max="984" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="985" max="985" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="986" max="986" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="987" max="987" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="988" max="988" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="989" max="989" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="990" max="990" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="991" max="991" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="992" max="992" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="993" max="993" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="994" max="994" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="995" max="995" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="996" max="996" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="997" max="997" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="998" max="998" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="999" max="999" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1000" max="1000" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1001" max="1001" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1002" max="1002" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1003" max="1003" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1004" max="1004" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1005" max="1005" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1006" max="1006" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1007" max="1007" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1008" max="1008" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1009" max="1009" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1010" max="1010" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1011" max="1011" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1012" max="1012" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1013" max="1013" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1014" max="1014" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1015" max="1015" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1016" max="1016" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1017" max="1017" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1018" max="1018" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1019" max="1019" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1020" max="1020" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1021" max="1021" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1022" max="1022" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1023" max="1023" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1024" max="1024" style="10" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1025" max="1025" style="9" width="21.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7 1025:1025" ht="18.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,71 +1539,3114 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+      <c r="DJ1" s="4"/>
+      <c r="DK1" s="4"/>
+      <c r="DL1" s="4"/>
+      <c r="DM1" s="4"/>
+      <c r="DN1" s="4"/>
+      <c r="DO1" s="4"/>
+      <c r="DP1" s="4"/>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="4"/>
+      <c r="FL1" s="4"/>
+      <c r="FM1" s="4"/>
+      <c r="FN1" s="4"/>
+      <c r="FO1" s="4"/>
+      <c r="FP1" s="4"/>
+      <c r="FQ1" s="4"/>
+      <c r="FR1" s="4"/>
+      <c r="FS1" s="4"/>
+      <c r="FT1" s="4"/>
+      <c r="FU1" s="4"/>
+      <c r="FV1" s="4"/>
+      <c r="FW1" s="4"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="4"/>
+      <c r="GG1" s="4"/>
+      <c r="GH1" s="4"/>
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="4"/>
+      <c r="GK1" s="4"/>
+      <c r="GL1" s="4"/>
+      <c r="GM1" s="4"/>
+      <c r="GN1" s="4"/>
+      <c r="GO1" s="4"/>
+      <c r="GP1" s="4"/>
+      <c r="GQ1" s="4"/>
+      <c r="GR1" s="4"/>
+      <c r="GS1" s="4"/>
+      <c r="GT1" s="4"/>
+      <c r="GU1" s="4"/>
+      <c r="GV1" s="4"/>
+      <c r="GW1" s="4"/>
+      <c r="GX1" s="4"/>
+      <c r="GY1" s="4"/>
+      <c r="GZ1" s="4"/>
+      <c r="HA1" s="4"/>
+      <c r="HB1" s="4"/>
+      <c r="HC1" s="4"/>
+      <c r="HD1" s="4"/>
+      <c r="HE1" s="4"/>
+      <c r="HF1" s="4"/>
+      <c r="HG1" s="4"/>
+      <c r="HH1" s="4"/>
+      <c r="HI1" s="4"/>
+      <c r="HJ1" s="4"/>
+      <c r="HK1" s="4"/>
+      <c r="HL1" s="4"/>
+      <c r="HM1" s="4"/>
+      <c r="HN1" s="4"/>
+      <c r="HO1" s="4"/>
+      <c r="HP1" s="4"/>
+      <c r="HQ1" s="4"/>
+      <c r="HR1" s="4"/>
+      <c r="HS1" s="4"/>
+      <c r="HT1" s="4"/>
+      <c r="HU1" s="4"/>
+      <c r="HV1" s="4"/>
+      <c r="HW1" s="4"/>
+      <c r="HX1" s="4"/>
+      <c r="HY1" s="4"/>
+      <c r="HZ1" s="4"/>
+      <c r="IA1" s="4"/>
+      <c r="IB1" s="4"/>
+      <c r="IC1" s="4"/>
+      <c r="ID1" s="4"/>
+      <c r="IE1" s="4"/>
+      <c r="IF1" s="4"/>
+      <c r="IG1" s="4"/>
+      <c r="IH1" s="4"/>
+      <c r="II1" s="4"/>
+      <c r="IJ1" s="4"/>
+      <c r="IK1" s="4"/>
+      <c r="IL1" s="4"/>
+      <c r="IM1" s="4"/>
+      <c r="IN1" s="4"/>
+      <c r="IO1" s="4"/>
+      <c r="IP1" s="4"/>
+      <c r="IQ1" s="4"/>
+      <c r="IR1" s="4"/>
+      <c r="IS1" s="4"/>
+      <c r="IT1" s="4"/>
+      <c r="IU1" s="4"/>
+      <c r="IV1" s="4"/>
+      <c r="IW1" s="4"/>
+      <c r="IX1" s="4"/>
+      <c r="IY1" s="4"/>
+      <c r="IZ1" s="4"/>
+      <c r="JA1" s="4"/>
+      <c r="JB1" s="4"/>
+      <c r="JC1" s="4"/>
+      <c r="JD1" s="4"/>
+      <c r="JE1" s="4"/>
+      <c r="JF1" s="4"/>
+      <c r="JG1" s="4"/>
+      <c r="JH1" s="4"/>
+      <c r="JI1" s="4"/>
+      <c r="JJ1" s="4"/>
+      <c r="JK1" s="4"/>
+      <c r="JL1" s="4"/>
+      <c r="JM1" s="4"/>
+      <c r="JN1" s="4"/>
+      <c r="JO1" s="4"/>
+      <c r="JP1" s="4"/>
+      <c r="JQ1" s="4"/>
+      <c r="JR1" s="4"/>
+      <c r="JS1" s="4"/>
+      <c r="JT1" s="4"/>
+      <c r="JU1" s="4"/>
+      <c r="JV1" s="4"/>
+      <c r="JW1" s="4"/>
+      <c r="JX1" s="4"/>
+      <c r="JY1" s="4"/>
+      <c r="JZ1" s="4"/>
+      <c r="KA1" s="4"/>
+      <c r="KB1" s="4"/>
+      <c r="KC1" s="4"/>
+      <c r="KD1" s="4"/>
+      <c r="KE1" s="4"/>
+      <c r="KF1" s="4"/>
+      <c r="KG1" s="4"/>
+      <c r="KH1" s="4"/>
+      <c r="KI1" s="4"/>
+      <c r="KJ1" s="4"/>
+      <c r="KK1" s="4"/>
+      <c r="KL1" s="4"/>
+      <c r="KM1" s="4"/>
+      <c r="KN1" s="4"/>
+      <c r="KO1" s="4"/>
+      <c r="KP1" s="4"/>
+      <c r="KQ1" s="4"/>
+      <c r="KR1" s="4"/>
+      <c r="KS1" s="4"/>
+      <c r="KT1" s="4"/>
+      <c r="KU1" s="4"/>
+      <c r="KV1" s="4"/>
+      <c r="KW1" s="4"/>
+      <c r="KX1" s="4"/>
+      <c r="KY1" s="4"/>
+      <c r="KZ1" s="4"/>
+      <c r="LA1" s="4"/>
+      <c r="LB1" s="4"/>
+      <c r="LC1" s="4"/>
+      <c r="LD1" s="4"/>
+      <c r="LE1" s="4"/>
+      <c r="LF1" s="4"/>
+      <c r="LG1" s="4"/>
+      <c r="LH1" s="4"/>
+      <c r="LI1" s="4"/>
+      <c r="LJ1" s="4"/>
+      <c r="LK1" s="4"/>
+      <c r="LL1" s="4"/>
+      <c r="LM1" s="4"/>
+      <c r="LN1" s="4"/>
+      <c r="LO1" s="4"/>
+      <c r="LP1" s="4"/>
+      <c r="LQ1" s="4"/>
+      <c r="LR1" s="4"/>
+      <c r="LS1" s="4"/>
+      <c r="LT1" s="4"/>
+      <c r="LU1" s="4"/>
+      <c r="LV1" s="4"/>
+      <c r="LW1" s="4"/>
+      <c r="LX1" s="4"/>
+      <c r="LY1" s="4"/>
+      <c r="LZ1" s="4"/>
+      <c r="MA1" s="4"/>
+      <c r="MB1" s="4"/>
+      <c r="MC1" s="4"/>
+      <c r="MD1" s="4"/>
+      <c r="ME1" s="4"/>
+      <c r="MF1" s="4"/>
+      <c r="MG1" s="4"/>
+      <c r="MH1" s="4"/>
+      <c r="MI1" s="4"/>
+      <c r="MJ1" s="4"/>
+      <c r="MK1" s="4"/>
+      <c r="ML1" s="4"/>
+      <c r="MM1" s="4"/>
+      <c r="MN1" s="4"/>
+      <c r="MO1" s="4"/>
+      <c r="MP1" s="4"/>
+      <c r="MQ1" s="4"/>
+      <c r="MR1" s="4"/>
+      <c r="MS1" s="4"/>
+      <c r="MT1" s="4"/>
+      <c r="MU1" s="4"/>
+      <c r="MV1" s="4"/>
+      <c r="MW1" s="4"/>
+      <c r="MX1" s="4"/>
+      <c r="MY1" s="4"/>
+      <c r="MZ1" s="4"/>
+      <c r="NA1" s="4"/>
+      <c r="NB1" s="4"/>
+      <c r="NC1" s="4"/>
+      <c r="ND1" s="4"/>
+      <c r="NE1" s="4"/>
+      <c r="NF1" s="4"/>
+      <c r="NG1" s="4"/>
+      <c r="NH1" s="4"/>
+      <c r="NI1" s="4"/>
+      <c r="NJ1" s="4"/>
+      <c r="NK1" s="4"/>
+      <c r="NL1" s="4"/>
+      <c r="NM1" s="4"/>
+      <c r="NN1" s="4"/>
+      <c r="NO1" s="4"/>
+      <c r="NP1" s="4"/>
+      <c r="NQ1" s="4"/>
+      <c r="NR1" s="4"/>
+      <c r="NS1" s="4"/>
+      <c r="NT1" s="4"/>
+      <c r="NU1" s="4"/>
+      <c r="NV1" s="4"/>
+      <c r="NW1" s="4"/>
+      <c r="NX1" s="4"/>
+      <c r="NY1" s="4"/>
+      <c r="NZ1" s="4"/>
+      <c r="OA1" s="4"/>
+      <c r="OB1" s="4"/>
+      <c r="OC1" s="4"/>
+      <c r="OD1" s="4"/>
+      <c r="OE1" s="4"/>
+      <c r="OF1" s="4"/>
+      <c r="OG1" s="4"/>
+      <c r="OH1" s="4"/>
+      <c r="OI1" s="4"/>
+      <c r="OJ1" s="4"/>
+      <c r="OK1" s="4"/>
+      <c r="OL1" s="4"/>
+      <c r="OM1" s="4"/>
+      <c r="ON1" s="4"/>
+      <c r="OO1" s="4"/>
+      <c r="OP1" s="4"/>
+      <c r="OQ1" s="4"/>
+      <c r="OR1" s="4"/>
+      <c r="OS1" s="4"/>
+      <c r="OT1" s="4"/>
+      <c r="OU1" s="4"/>
+      <c r="OV1" s="4"/>
+      <c r="OW1" s="4"/>
+      <c r="OX1" s="4"/>
+      <c r="OY1" s="4"/>
+      <c r="OZ1" s="4"/>
+      <c r="PA1" s="4"/>
+      <c r="PB1" s="4"/>
+      <c r="PC1" s="4"/>
+      <c r="PD1" s="4"/>
+      <c r="PE1" s="4"/>
+      <c r="PF1" s="4"/>
+      <c r="PG1" s="4"/>
+      <c r="PH1" s="4"/>
+      <c r="PI1" s="4"/>
+      <c r="PJ1" s="4"/>
+      <c r="PK1" s="4"/>
+      <c r="PL1" s="4"/>
+      <c r="PM1" s="4"/>
+      <c r="PN1" s="4"/>
+      <c r="PO1" s="4"/>
+      <c r="PP1" s="4"/>
+      <c r="PQ1" s="4"/>
+      <c r="PR1" s="4"/>
+      <c r="PS1" s="4"/>
+      <c r="PT1" s="4"/>
+      <c r="PU1" s="4"/>
+      <c r="PV1" s="4"/>
+      <c r="PW1" s="4"/>
+      <c r="PX1" s="4"/>
+      <c r="PY1" s="4"/>
+      <c r="PZ1" s="4"/>
+      <c r="QA1" s="4"/>
+      <c r="QB1" s="4"/>
+      <c r="QC1" s="4"/>
+      <c r="QD1" s="4"/>
+      <c r="QE1" s="4"/>
+      <c r="QF1" s="4"/>
+      <c r="QG1" s="4"/>
+      <c r="QH1" s="4"/>
+      <c r="QI1" s="4"/>
+      <c r="QJ1" s="4"/>
+      <c r="QK1" s="4"/>
+      <c r="QL1" s="4"/>
+      <c r="QM1" s="4"/>
+      <c r="QN1" s="4"/>
+      <c r="QO1" s="4"/>
+      <c r="QP1" s="4"/>
+      <c r="QQ1" s="4"/>
+      <c r="QR1" s="4"/>
+      <c r="QS1" s="4"/>
+      <c r="QT1" s="4"/>
+      <c r="QU1" s="4"/>
+      <c r="QV1" s="4"/>
+      <c r="QW1" s="4"/>
+      <c r="QX1" s="4"/>
+      <c r="QY1" s="4"/>
+      <c r="QZ1" s="4"/>
+      <c r="RA1" s="4"/>
+      <c r="RB1" s="4"/>
+      <c r="RC1" s="4"/>
+      <c r="RD1" s="4"/>
+      <c r="RE1" s="4"/>
+      <c r="RF1" s="4"/>
+      <c r="RG1" s="4"/>
+      <c r="RH1" s="4"/>
+      <c r="RI1" s="4"/>
+      <c r="RJ1" s="4"/>
+      <c r="RK1" s="4"/>
+      <c r="RL1" s="4"/>
+      <c r="RM1" s="4"/>
+      <c r="RN1" s="4"/>
+      <c r="RO1" s="4"/>
+      <c r="RP1" s="4"/>
+      <c r="RQ1" s="4"/>
+      <c r="RR1" s="4"/>
+      <c r="RS1" s="4"/>
+      <c r="RT1" s="4"/>
+      <c r="RU1" s="4"/>
+      <c r="RV1" s="4"/>
+      <c r="RW1" s="4"/>
+      <c r="RX1" s="4"/>
+      <c r="RY1" s="4"/>
+      <c r="RZ1" s="4"/>
+      <c r="SA1" s="4"/>
+      <c r="SB1" s="4"/>
+      <c r="SC1" s="4"/>
+      <c r="SD1" s="4"/>
+      <c r="SE1" s="4"/>
+      <c r="SF1" s="4"/>
+      <c r="SG1" s="4"/>
+      <c r="SH1" s="4"/>
+      <c r="SI1" s="4"/>
+      <c r="SJ1" s="4"/>
+      <c r="SK1" s="4"/>
+      <c r="SL1" s="4"/>
+      <c r="SM1" s="4"/>
+      <c r="SN1" s="4"/>
+      <c r="SO1" s="4"/>
+      <c r="SP1" s="4"/>
+      <c r="SQ1" s="4"/>
+      <c r="SR1" s="4"/>
+      <c r="SS1" s="4"/>
+      <c r="ST1" s="4"/>
+      <c r="SU1" s="4"/>
+      <c r="SV1" s="4"/>
+      <c r="SW1" s="4"/>
+      <c r="SX1" s="4"/>
+      <c r="SY1" s="4"/>
+      <c r="SZ1" s="4"/>
+      <c r="TA1" s="4"/>
+      <c r="TB1" s="4"/>
+      <c r="TC1" s="4"/>
+      <c r="TD1" s="4"/>
+      <c r="TE1" s="4"/>
+      <c r="TF1" s="4"/>
+      <c r="TG1" s="4"/>
+      <c r="TH1" s="4"/>
+      <c r="TI1" s="4"/>
+      <c r="TJ1" s="4"/>
+      <c r="TK1" s="4"/>
+      <c r="TL1" s="4"/>
+      <c r="TM1" s="4"/>
+      <c r="TN1" s="4"/>
+      <c r="TO1" s="4"/>
+      <c r="TP1" s="4"/>
+      <c r="TQ1" s="4"/>
+      <c r="TR1" s="4"/>
+      <c r="TS1" s="4"/>
+      <c r="TT1" s="4"/>
+      <c r="TU1" s="4"/>
+      <c r="TV1" s="4"/>
+      <c r="TW1" s="4"/>
+      <c r="TX1" s="4"/>
+      <c r="TY1" s="4"/>
+      <c r="TZ1" s="4"/>
+      <c r="UA1" s="4"/>
+      <c r="UB1" s="4"/>
+      <c r="UC1" s="4"/>
+      <c r="UD1" s="4"/>
+      <c r="UE1" s="4"/>
+      <c r="UF1" s="4"/>
+      <c r="UG1" s="4"/>
+      <c r="UH1" s="4"/>
+      <c r="UI1" s="4"/>
+      <c r="UJ1" s="4"/>
+      <c r="UK1" s="4"/>
+      <c r="UL1" s="4"/>
+      <c r="UM1" s="4"/>
+      <c r="UN1" s="4"/>
+      <c r="UO1" s="4"/>
+      <c r="UP1" s="4"/>
+      <c r="UQ1" s="4"/>
+      <c r="UR1" s="4"/>
+      <c r="US1" s="4"/>
+      <c r="UT1" s="4"/>
+      <c r="UU1" s="4"/>
+      <c r="UV1" s="4"/>
+      <c r="UW1" s="4"/>
+      <c r="UX1" s="4"/>
+      <c r="UY1" s="4"/>
+      <c r="UZ1" s="4"/>
+      <c r="VA1" s="4"/>
+      <c r="VB1" s="4"/>
+      <c r="VC1" s="4"/>
+      <c r="VD1" s="4"/>
+      <c r="VE1" s="4"/>
+      <c r="VF1" s="4"/>
+      <c r="VG1" s="4"/>
+      <c r="VH1" s="4"/>
+      <c r="VI1" s="4"/>
+      <c r="VJ1" s="4"/>
+      <c r="VK1" s="4"/>
+      <c r="VL1" s="4"/>
+      <c r="VM1" s="4"/>
+      <c r="VN1" s="4"/>
+      <c r="VO1" s="4"/>
+      <c r="VP1" s="4"/>
+      <c r="VQ1" s="4"/>
+      <c r="VR1" s="4"/>
+      <c r="VS1" s="4"/>
+      <c r="VT1" s="4"/>
+      <c r="VU1" s="4"/>
+      <c r="VV1" s="4"/>
+      <c r="VW1" s="4"/>
+      <c r="VX1" s="4"/>
+      <c r="VY1" s="4"/>
+      <c r="VZ1" s="4"/>
+      <c r="WA1" s="4"/>
+      <c r="WB1" s="4"/>
+      <c r="WC1" s="4"/>
+      <c r="WD1" s="4"/>
+      <c r="WE1" s="4"/>
+      <c r="WF1" s="4"/>
+      <c r="WG1" s="4"/>
+      <c r="WH1" s="4"/>
+      <c r="WI1" s="4"/>
+      <c r="WJ1" s="4"/>
+      <c r="WK1" s="4"/>
+      <c r="WL1" s="4"/>
+      <c r="WM1" s="4"/>
+      <c r="WN1" s="4"/>
+      <c r="WO1" s="4"/>
+      <c r="WP1" s="4"/>
+      <c r="WQ1" s="4"/>
+      <c r="WR1" s="4"/>
+      <c r="WS1" s="4"/>
+      <c r="WT1" s="4"/>
+      <c r="WU1" s="4"/>
+      <c r="WV1" s="4"/>
+      <c r="WW1" s="4"/>
+      <c r="WX1" s="4"/>
+      <c r="WY1" s="4"/>
+      <c r="WZ1" s="4"/>
+      <c r="XA1" s="4"/>
+      <c r="XB1" s="4"/>
+      <c r="XC1" s="4"/>
+      <c r="XD1" s="4"/>
+      <c r="XE1" s="4"/>
+      <c r="XF1" s="4"/>
+      <c r="XG1" s="4"/>
+      <c r="XH1" s="4"/>
+      <c r="XI1" s="4"/>
+      <c r="XJ1" s="4"/>
+      <c r="XK1" s="4"/>
+      <c r="XL1" s="4"/>
+      <c r="XM1" s="4"/>
+      <c r="XN1" s="4"/>
+      <c r="XO1" s="4"/>
+      <c r="XP1" s="4"/>
+      <c r="XQ1" s="4"/>
+      <c r="XR1" s="4"/>
+      <c r="XS1" s="4"/>
+      <c r="XT1" s="4"/>
+      <c r="XU1" s="4"/>
+      <c r="XV1" s="4"/>
+      <c r="XW1" s="4"/>
+      <c r="XX1" s="4"/>
+      <c r="XY1" s="4"/>
+      <c r="XZ1" s="4"/>
+      <c r="YA1" s="4"/>
+      <c r="YB1" s="4"/>
+      <c r="YC1" s="4"/>
+      <c r="YD1" s="4"/>
+      <c r="YE1" s="4"/>
+      <c r="YF1" s="4"/>
+      <c r="YG1" s="4"/>
+      <c r="YH1" s="4"/>
+      <c r="YI1" s="4"/>
+      <c r="YJ1" s="4"/>
+      <c r="YK1" s="4"/>
+      <c r="YL1" s="4"/>
+      <c r="YM1" s="4"/>
+      <c r="YN1" s="4"/>
+      <c r="YO1" s="4"/>
+      <c r="YP1" s="4"/>
+      <c r="YQ1" s="4"/>
+      <c r="YR1" s="4"/>
+      <c r="YS1" s="4"/>
+      <c r="YT1" s="4"/>
+      <c r="YU1" s="4"/>
+      <c r="YV1" s="4"/>
+      <c r="YW1" s="4"/>
+      <c r="YX1" s="4"/>
+      <c r="YY1" s="4"/>
+      <c r="YZ1" s="4"/>
+      <c r="ZA1" s="4"/>
+      <c r="ZB1" s="4"/>
+      <c r="ZC1" s="4"/>
+      <c r="ZD1" s="4"/>
+      <c r="ZE1" s="4"/>
+      <c r="ZF1" s="4"/>
+      <c r="ZG1" s="4"/>
+      <c r="ZH1" s="4"/>
+      <c r="ZI1" s="4"/>
+      <c r="ZJ1" s="4"/>
+      <c r="ZK1" s="4"/>
+      <c r="ZL1" s="4"/>
+      <c r="ZM1" s="4"/>
+      <c r="ZN1" s="4"/>
+      <c r="ZO1" s="4"/>
+      <c r="ZP1" s="4"/>
+      <c r="ZQ1" s="4"/>
+      <c r="ZR1" s="4"/>
+      <c r="ZS1" s="4"/>
+      <c r="ZT1" s="4"/>
+      <c r="ZU1" s="4"/>
+      <c r="ZV1" s="4"/>
+      <c r="ZW1" s="4"/>
+      <c r="ZX1" s="4"/>
+      <c r="ZY1" s="4"/>
+      <c r="ZZ1" s="4"/>
+      <c r="AAA1" s="4"/>
+      <c r="AAB1" s="4"/>
+      <c r="AAC1" s="4"/>
+      <c r="AAD1" s="4"/>
+      <c r="AAE1" s="4"/>
+      <c r="AAF1" s="4"/>
+      <c r="AAG1" s="4"/>
+      <c r="AAH1" s="4"/>
+      <c r="AAI1" s="4"/>
+      <c r="AAJ1" s="4"/>
+      <c r="AAK1" s="4"/>
+      <c r="AAL1" s="4"/>
+      <c r="AAM1" s="4"/>
+      <c r="AAN1" s="4"/>
+      <c r="AAO1" s="4"/>
+      <c r="AAP1" s="4"/>
+      <c r="AAQ1" s="4"/>
+      <c r="AAR1" s="4"/>
+      <c r="AAS1" s="4"/>
+      <c r="AAT1" s="4"/>
+      <c r="AAU1" s="4"/>
+      <c r="AAV1" s="4"/>
+      <c r="AAW1" s="4"/>
+      <c r="AAX1" s="4"/>
+      <c r="AAY1" s="4"/>
+      <c r="AAZ1" s="4"/>
+      <c r="ABA1" s="4"/>
+      <c r="ABB1" s="4"/>
+      <c r="ABC1" s="4"/>
+      <c r="ABD1" s="4"/>
+      <c r="ABE1" s="4"/>
+      <c r="ABF1" s="4"/>
+      <c r="ABG1" s="4"/>
+      <c r="ABH1" s="4"/>
+      <c r="ABI1" s="4"/>
+      <c r="ABJ1" s="4"/>
+      <c r="ABK1" s="4"/>
+      <c r="ABL1" s="4"/>
+      <c r="ABM1" s="4"/>
+      <c r="ABN1" s="4"/>
+      <c r="ABO1" s="4"/>
+      <c r="ABP1" s="4"/>
+      <c r="ABQ1" s="4"/>
+      <c r="ABR1" s="4"/>
+      <c r="ABS1" s="4"/>
+      <c r="ABT1" s="4"/>
+      <c r="ABU1" s="4"/>
+      <c r="ABV1" s="4"/>
+      <c r="ABW1" s="4"/>
+      <c r="ABX1" s="4"/>
+      <c r="ABY1" s="4"/>
+      <c r="ABZ1" s="4"/>
+      <c r="ACA1" s="4"/>
+      <c r="ACB1" s="4"/>
+      <c r="ACC1" s="4"/>
+      <c r="ACD1" s="4"/>
+      <c r="ACE1" s="4"/>
+      <c r="ACF1" s="4"/>
+      <c r="ACG1" s="4"/>
+      <c r="ACH1" s="4"/>
+      <c r="ACI1" s="4"/>
+      <c r="ACJ1" s="4"/>
+      <c r="ACK1" s="4"/>
+      <c r="ACL1" s="4"/>
+      <c r="ACM1" s="4"/>
+      <c r="ACN1" s="4"/>
+      <c r="ACO1" s="4"/>
+      <c r="ACP1" s="4"/>
+      <c r="ACQ1" s="4"/>
+      <c r="ACR1" s="4"/>
+      <c r="ACS1" s="4"/>
+      <c r="ACT1" s="4"/>
+      <c r="ACU1" s="4"/>
+      <c r="ACV1" s="4"/>
+      <c r="ACW1" s="4"/>
+      <c r="ACX1" s="4"/>
+      <c r="ACY1" s="4"/>
+      <c r="ACZ1" s="4"/>
+      <c r="ADA1" s="4"/>
+      <c r="ADB1" s="4"/>
+      <c r="ADC1" s="4"/>
+      <c r="ADD1" s="4"/>
+      <c r="ADE1" s="4"/>
+      <c r="ADF1" s="4"/>
+      <c r="ADG1" s="4"/>
+      <c r="ADH1" s="4"/>
+      <c r="ADI1" s="4"/>
+      <c r="ADJ1" s="4"/>
+      <c r="ADK1" s="4"/>
+      <c r="ADL1" s="4"/>
+      <c r="ADM1" s="4"/>
+      <c r="ADN1" s="4"/>
+      <c r="ADO1" s="4"/>
+      <c r="ADP1" s="4"/>
+      <c r="ADQ1" s="4"/>
+      <c r="ADR1" s="4"/>
+      <c r="ADS1" s="4"/>
+      <c r="ADT1" s="4"/>
+      <c r="ADU1" s="4"/>
+      <c r="ADV1" s="4"/>
+      <c r="ADW1" s="4"/>
+      <c r="ADX1" s="4"/>
+      <c r="ADY1" s="4"/>
+      <c r="ADZ1" s="4"/>
+      <c r="AEA1" s="4"/>
+      <c r="AEB1" s="4"/>
+      <c r="AEC1" s="4"/>
+      <c r="AED1" s="4"/>
+      <c r="AEE1" s="4"/>
+      <c r="AEF1" s="4"/>
+      <c r="AEG1" s="4"/>
+      <c r="AEH1" s="4"/>
+      <c r="AEI1" s="4"/>
+      <c r="AEJ1" s="4"/>
+      <c r="AEK1" s="4"/>
+      <c r="AEL1" s="4"/>
+      <c r="AEM1" s="4"/>
+      <c r="AEN1" s="4"/>
+      <c r="AEO1" s="4"/>
+      <c r="AEP1" s="4"/>
+      <c r="AEQ1" s="4"/>
+      <c r="AER1" s="4"/>
+      <c r="AES1" s="4"/>
+      <c r="AET1" s="4"/>
+      <c r="AEU1" s="4"/>
+      <c r="AEV1" s="4"/>
+      <c r="AEW1" s="4"/>
+      <c r="AEX1" s="4"/>
+      <c r="AEY1" s="4"/>
+      <c r="AEZ1" s="4"/>
+      <c r="AFA1" s="4"/>
+      <c r="AFB1" s="4"/>
+      <c r="AFC1" s="4"/>
+      <c r="AFD1" s="4"/>
+      <c r="AFE1" s="4"/>
+      <c r="AFF1" s="4"/>
+      <c r="AFG1" s="4"/>
+      <c r="AFH1" s="4"/>
+      <c r="AFI1" s="4"/>
+      <c r="AFJ1" s="4"/>
+      <c r="AFK1" s="4"/>
+      <c r="AFL1" s="4"/>
+      <c r="AFM1" s="4"/>
+      <c r="AFN1" s="4"/>
+      <c r="AFO1" s="4"/>
+      <c r="AFP1" s="4"/>
+      <c r="AFQ1" s="4"/>
+      <c r="AFR1" s="4"/>
+      <c r="AFS1" s="4"/>
+      <c r="AFT1" s="4"/>
+      <c r="AFU1" s="4"/>
+      <c r="AFV1" s="4"/>
+      <c r="AFW1" s="4"/>
+      <c r="AFX1" s="4"/>
+      <c r="AFY1" s="4"/>
+      <c r="AFZ1" s="4"/>
+      <c r="AGA1" s="4"/>
+      <c r="AGB1" s="4"/>
+      <c r="AGC1" s="4"/>
+      <c r="AGD1" s="4"/>
+      <c r="AGE1" s="4"/>
+      <c r="AGF1" s="4"/>
+      <c r="AGG1" s="4"/>
+      <c r="AGH1" s="4"/>
+      <c r="AGI1" s="4"/>
+      <c r="AGJ1" s="4"/>
+      <c r="AGK1" s="4"/>
+      <c r="AGL1" s="4"/>
+      <c r="AGM1" s="4"/>
+      <c r="AGN1" s="4"/>
+      <c r="AGO1" s="4"/>
+      <c r="AGP1" s="4"/>
+      <c r="AGQ1" s="4"/>
+      <c r="AGR1" s="4"/>
+      <c r="AGS1" s="4"/>
+      <c r="AGT1" s="4"/>
+      <c r="AGU1" s="4"/>
+      <c r="AGV1" s="4"/>
+      <c r="AGW1" s="4"/>
+      <c r="AGX1" s="4"/>
+      <c r="AGY1" s="4"/>
+      <c r="AGZ1" s="4"/>
+      <c r="AHA1" s="4"/>
+      <c r="AHB1" s="4"/>
+      <c r="AHC1" s="4"/>
+      <c r="AHD1" s="4"/>
+      <c r="AHE1" s="4"/>
+      <c r="AHF1" s="4"/>
+      <c r="AHG1" s="4"/>
+      <c r="AHH1" s="4"/>
+      <c r="AHI1" s="4"/>
+      <c r="AHJ1" s="4"/>
+      <c r="AHK1" s="4"/>
+      <c r="AHL1" s="4"/>
+      <c r="AHM1" s="4"/>
+      <c r="AHN1" s="4"/>
+      <c r="AHO1" s="4"/>
+      <c r="AHP1" s="4"/>
+      <c r="AHQ1" s="4"/>
+      <c r="AHR1" s="4"/>
+      <c r="AHS1" s="4"/>
+      <c r="AHT1" s="4"/>
+      <c r="AHU1" s="4"/>
+      <c r="AHV1" s="4"/>
+      <c r="AHW1" s="4"/>
+      <c r="AHX1" s="4"/>
+      <c r="AHY1" s="4"/>
+      <c r="AHZ1" s="4"/>
+      <c r="AIA1" s="4"/>
+      <c r="AIB1" s="4"/>
+      <c r="AIC1" s="4"/>
+      <c r="AID1" s="4"/>
+      <c r="AIE1" s="4"/>
+      <c r="AIF1" s="4"/>
+      <c r="AIG1" s="4"/>
+      <c r="AIH1" s="4"/>
+      <c r="AII1" s="4"/>
+      <c r="AIJ1" s="4"/>
+      <c r="AIK1" s="4"/>
+      <c r="AIL1" s="4"/>
+      <c r="AIM1" s="4"/>
+      <c r="AIN1" s="4"/>
+      <c r="AIO1" s="4"/>
+      <c r="AIP1" s="4"/>
+      <c r="AIQ1" s="4"/>
+      <c r="AIR1" s="4"/>
+      <c r="AIS1" s="4"/>
+      <c r="AIT1" s="4"/>
+      <c r="AIU1" s="4"/>
+      <c r="AIV1" s="4"/>
+      <c r="AIW1" s="4"/>
+      <c r="AIX1" s="4"/>
+      <c r="AIY1" s="4"/>
+      <c r="AIZ1" s="4"/>
+      <c r="AJA1" s="4"/>
+      <c r="AJB1" s="4"/>
+      <c r="AJC1" s="4"/>
+      <c r="AJD1" s="4"/>
+      <c r="AJE1" s="4"/>
+      <c r="AJF1" s="4"/>
+      <c r="AJG1" s="4"/>
+      <c r="AJH1" s="4"/>
+      <c r="AJI1" s="4"/>
+      <c r="AJJ1" s="4"/>
+      <c r="AJK1" s="4"/>
+      <c r="AJL1" s="4"/>
+      <c r="AJM1" s="4"/>
+      <c r="AJN1" s="4"/>
+      <c r="AJO1" s="4"/>
+      <c r="AJP1" s="4"/>
+      <c r="AJQ1" s="4"/>
+      <c r="AJR1" s="4"/>
+      <c r="AJS1" s="4"/>
+      <c r="AJT1" s="4"/>
+      <c r="AJU1" s="4"/>
+      <c r="AJV1" s="4"/>
+      <c r="AJW1" s="4"/>
+      <c r="AJX1" s="4"/>
+      <c r="AJY1" s="4"/>
+      <c r="AJZ1" s="4"/>
+      <c r="AKA1" s="4"/>
+      <c r="AKB1" s="4"/>
+      <c r="AKC1" s="4"/>
+      <c r="AKD1" s="4"/>
+      <c r="AKE1" s="4"/>
+      <c r="AKF1" s="4"/>
+      <c r="AKG1" s="4"/>
+      <c r="AKH1" s="4"/>
+      <c r="AKI1" s="4"/>
+      <c r="AKJ1" s="4"/>
+      <c r="AKK1" s="4"/>
+      <c r="AKL1" s="4"/>
+      <c r="AKM1" s="4"/>
+      <c r="AKN1" s="4"/>
+      <c r="AKO1" s="4"/>
+      <c r="AKP1" s="4"/>
+      <c r="AKQ1" s="4"/>
+      <c r="AKR1" s="4"/>
+      <c r="AKS1" s="4"/>
+      <c r="AKT1" s="4"/>
+      <c r="AKU1" s="4"/>
+      <c r="AKV1" s="4"/>
+      <c r="AKW1" s="4"/>
+      <c r="AKX1" s="4"/>
+      <c r="AKY1" s="4"/>
+      <c r="AKZ1" s="4"/>
+      <c r="ALA1" s="4"/>
+      <c r="ALB1" s="4"/>
+      <c r="ALC1" s="4"/>
+      <c r="ALD1" s="4"/>
+      <c r="ALE1" s="4"/>
+      <c r="ALF1" s="4"/>
+      <c r="ALG1" s="4"/>
+      <c r="ALH1" s="4"/>
+      <c r="ALI1" s="4"/>
+      <c r="ALJ1" s="4"/>
+      <c r="ALK1" s="4"/>
+      <c r="ALL1" s="4"/>
+      <c r="ALM1" s="4"/>
+      <c r="ALN1" s="4"/>
+      <c r="ALO1" s="4"/>
+      <c r="ALP1" s="4"/>
+      <c r="ALQ1" s="4"/>
+      <c r="ALR1" s="4"/>
+      <c r="ALS1" s="4"/>
+      <c r="ALT1" s="4"/>
+      <c r="ALU1" s="4"/>
+      <c r="ALV1" s="4"/>
+      <c r="ALW1" s="4"/>
+      <c r="ALX1" s="4"/>
+      <c r="ALY1" s="4"/>
+      <c r="ALZ1" s="4"/>
+      <c r="AMA1" s="4"/>
+      <c r="AMB1" s="4"/>
+      <c r="AMC1" s="4"/>
+      <c r="AMD1" s="4"/>
+      <c r="AME1" s="4"/>
+      <c r="AMF1" s="4"/>
+      <c r="AMG1" s="4"/>
+      <c r="AMH1" s="4"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
       <c r="AMK1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7 1025:1025" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>20365456980</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>685000</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>15000</v>
       </c>
-      <c r="AMK2" s="6">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
+      <c r="DP2" s="4"/>
+      <c r="DQ2" s="4"/>
+      <c r="DR2" s="4"/>
+      <c r="DS2" s="4"/>
+      <c r="DT2" s="4"/>
+      <c r="DU2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DX2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EC2" s="4"/>
+      <c r="ED2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+      <c r="EM2" s="4"/>
+      <c r="EN2" s="4"/>
+      <c r="EO2" s="4"/>
+      <c r="EP2" s="4"/>
+      <c r="EQ2" s="4"/>
+      <c r="ER2" s="4"/>
+      <c r="ES2" s="4"/>
+      <c r="ET2" s="4"/>
+      <c r="EU2" s="4"/>
+      <c r="EV2" s="4"/>
+      <c r="EW2" s="4"/>
+      <c r="EX2" s="4"/>
+      <c r="EY2" s="4"/>
+      <c r="EZ2" s="4"/>
+      <c r="FA2" s="4"/>
+      <c r="FB2" s="4"/>
+      <c r="FC2" s="4"/>
+      <c r="FD2" s="4"/>
+      <c r="FE2" s="4"/>
+      <c r="FF2" s="4"/>
+      <c r="FG2" s="4"/>
+      <c r="FH2" s="4"/>
+      <c r="FI2" s="4"/>
+      <c r="FJ2" s="4"/>
+      <c r="FK2" s="4"/>
+      <c r="FL2" s="4"/>
+      <c r="FM2" s="4"/>
+      <c r="FN2" s="4"/>
+      <c r="FO2" s="4"/>
+      <c r="FP2" s="4"/>
+      <c r="FQ2" s="4"/>
+      <c r="FR2" s="4"/>
+      <c r="FS2" s="4"/>
+      <c r="FT2" s="4"/>
+      <c r="FU2" s="4"/>
+      <c r="FV2" s="4"/>
+      <c r="FW2" s="4"/>
+      <c r="FX2" s="4"/>
+      <c r="FY2" s="4"/>
+      <c r="FZ2" s="4"/>
+      <c r="GA2" s="4"/>
+      <c r="GB2" s="4"/>
+      <c r="GC2" s="4"/>
+      <c r="GD2" s="4"/>
+      <c r="GE2" s="4"/>
+      <c r="GF2" s="4"/>
+      <c r="GG2" s="4"/>
+      <c r="GH2" s="4"/>
+      <c r="GI2" s="4"/>
+      <c r="GJ2" s="4"/>
+      <c r="GK2" s="4"/>
+      <c r="GL2" s="4"/>
+      <c r="GM2" s="4"/>
+      <c r="GN2" s="4"/>
+      <c r="GO2" s="4"/>
+      <c r="GP2" s="4"/>
+      <c r="GQ2" s="4"/>
+      <c r="GR2" s="4"/>
+      <c r="GS2" s="4"/>
+      <c r="GT2" s="4"/>
+      <c r="GU2" s="4"/>
+      <c r="GV2" s="4"/>
+      <c r="GW2" s="4"/>
+      <c r="GX2" s="4"/>
+      <c r="GY2" s="4"/>
+      <c r="GZ2" s="4"/>
+      <c r="HA2" s="4"/>
+      <c r="HB2" s="4"/>
+      <c r="HC2" s="4"/>
+      <c r="HD2" s="4"/>
+      <c r="HE2" s="4"/>
+      <c r="HF2" s="4"/>
+      <c r="HG2" s="4"/>
+      <c r="HH2" s="4"/>
+      <c r="HI2" s="4"/>
+      <c r="HJ2" s="4"/>
+      <c r="HK2" s="4"/>
+      <c r="HL2" s="4"/>
+      <c r="HM2" s="4"/>
+      <c r="HN2" s="4"/>
+      <c r="HO2" s="4"/>
+      <c r="HP2" s="4"/>
+      <c r="HQ2" s="4"/>
+      <c r="HR2" s="4"/>
+      <c r="HS2" s="4"/>
+      <c r="HT2" s="4"/>
+      <c r="HU2" s="4"/>
+      <c r="HV2" s="4"/>
+      <c r="HW2" s="4"/>
+      <c r="HX2" s="4"/>
+      <c r="HY2" s="4"/>
+      <c r="HZ2" s="4"/>
+      <c r="IA2" s="4"/>
+      <c r="IB2" s="4"/>
+      <c r="IC2" s="4"/>
+      <c r="ID2" s="4"/>
+      <c r="IE2" s="4"/>
+      <c r="IF2" s="4"/>
+      <c r="IG2" s="4"/>
+      <c r="IH2" s="4"/>
+      <c r="II2" s="4"/>
+      <c r="IJ2" s="4"/>
+      <c r="IK2" s="4"/>
+      <c r="IL2" s="4"/>
+      <c r="IM2" s="4"/>
+      <c r="IN2" s="4"/>
+      <c r="IO2" s="4"/>
+      <c r="IP2" s="4"/>
+      <c r="IQ2" s="4"/>
+      <c r="IR2" s="4"/>
+      <c r="IS2" s="4"/>
+      <c r="IT2" s="4"/>
+      <c r="IU2" s="4"/>
+      <c r="IV2" s="4"/>
+      <c r="IW2" s="4"/>
+      <c r="IX2" s="4"/>
+      <c r="IY2" s="4"/>
+      <c r="IZ2" s="4"/>
+      <c r="JA2" s="4"/>
+      <c r="JB2" s="4"/>
+      <c r="JC2" s="4"/>
+      <c r="JD2" s="4"/>
+      <c r="JE2" s="4"/>
+      <c r="JF2" s="4"/>
+      <c r="JG2" s="4"/>
+      <c r="JH2" s="4"/>
+      <c r="JI2" s="4"/>
+      <c r="JJ2" s="4"/>
+      <c r="JK2" s="4"/>
+      <c r="JL2" s="4"/>
+      <c r="JM2" s="4"/>
+      <c r="JN2" s="4"/>
+      <c r="JO2" s="4"/>
+      <c r="JP2" s="4"/>
+      <c r="JQ2" s="4"/>
+      <c r="JR2" s="4"/>
+      <c r="JS2" s="4"/>
+      <c r="JT2" s="4"/>
+      <c r="JU2" s="4"/>
+      <c r="JV2" s="4"/>
+      <c r="JW2" s="4"/>
+      <c r="JX2" s="4"/>
+      <c r="JY2" s="4"/>
+      <c r="JZ2" s="4"/>
+      <c r="KA2" s="4"/>
+      <c r="KB2" s="4"/>
+      <c r="KC2" s="4"/>
+      <c r="KD2" s="4"/>
+      <c r="KE2" s="4"/>
+      <c r="KF2" s="4"/>
+      <c r="KG2" s="4"/>
+      <c r="KH2" s="4"/>
+      <c r="KI2" s="4"/>
+      <c r="KJ2" s="4"/>
+      <c r="KK2" s="4"/>
+      <c r="KL2" s="4"/>
+      <c r="KM2" s="4"/>
+      <c r="KN2" s="4"/>
+      <c r="KO2" s="4"/>
+      <c r="KP2" s="4"/>
+      <c r="KQ2" s="4"/>
+      <c r="KR2" s="4"/>
+      <c r="KS2" s="4"/>
+      <c r="KT2" s="4"/>
+      <c r="KU2" s="4"/>
+      <c r="KV2" s="4"/>
+      <c r="KW2" s="4"/>
+      <c r="KX2" s="4"/>
+      <c r="KY2" s="4"/>
+      <c r="KZ2" s="4"/>
+      <c r="LA2" s="4"/>
+      <c r="LB2" s="4"/>
+      <c r="LC2" s="4"/>
+      <c r="LD2" s="4"/>
+      <c r="LE2" s="4"/>
+      <c r="LF2" s="4"/>
+      <c r="LG2" s="4"/>
+      <c r="LH2" s="4"/>
+      <c r="LI2" s="4"/>
+      <c r="LJ2" s="4"/>
+      <c r="LK2" s="4"/>
+      <c r="LL2" s="4"/>
+      <c r="LM2" s="4"/>
+      <c r="LN2" s="4"/>
+      <c r="LO2" s="4"/>
+      <c r="LP2" s="4"/>
+      <c r="LQ2" s="4"/>
+      <c r="LR2" s="4"/>
+      <c r="LS2" s="4"/>
+      <c r="LT2" s="4"/>
+      <c r="LU2" s="4"/>
+      <c r="LV2" s="4"/>
+      <c r="LW2" s="4"/>
+      <c r="LX2" s="4"/>
+      <c r="LY2" s="4"/>
+      <c r="LZ2" s="4"/>
+      <c r="MA2" s="4"/>
+      <c r="MB2" s="4"/>
+      <c r="MC2" s="4"/>
+      <c r="MD2" s="4"/>
+      <c r="ME2" s="4"/>
+      <c r="MF2" s="4"/>
+      <c r="MG2" s="4"/>
+      <c r="MH2" s="4"/>
+      <c r="MI2" s="4"/>
+      <c r="MJ2" s="4"/>
+      <c r="MK2" s="4"/>
+      <c r="ML2" s="4"/>
+      <c r="MM2" s="4"/>
+      <c r="MN2" s="4"/>
+      <c r="MO2" s="4"/>
+      <c r="MP2" s="4"/>
+      <c r="MQ2" s="4"/>
+      <c r="MR2" s="4"/>
+      <c r="MS2" s="4"/>
+      <c r="MT2" s="4"/>
+      <c r="MU2" s="4"/>
+      <c r="MV2" s="4"/>
+      <c r="MW2" s="4"/>
+      <c r="MX2" s="4"/>
+      <c r="MY2" s="4"/>
+      <c r="MZ2" s="4"/>
+      <c r="NA2" s="4"/>
+      <c r="NB2" s="4"/>
+      <c r="NC2" s="4"/>
+      <c r="ND2" s="4"/>
+      <c r="NE2" s="4"/>
+      <c r="NF2" s="4"/>
+      <c r="NG2" s="4"/>
+      <c r="NH2" s="4"/>
+      <c r="NI2" s="4"/>
+      <c r="NJ2" s="4"/>
+      <c r="NK2" s="4"/>
+      <c r="NL2" s="4"/>
+      <c r="NM2" s="4"/>
+      <c r="NN2" s="4"/>
+      <c r="NO2" s="4"/>
+      <c r="NP2" s="4"/>
+      <c r="NQ2" s="4"/>
+      <c r="NR2" s="4"/>
+      <c r="NS2" s="4"/>
+      <c r="NT2" s="4"/>
+      <c r="NU2" s="4"/>
+      <c r="NV2" s="4"/>
+      <c r="NW2" s="4"/>
+      <c r="NX2" s="4"/>
+      <c r="NY2" s="4"/>
+      <c r="NZ2" s="4"/>
+      <c r="OA2" s="4"/>
+      <c r="OB2" s="4"/>
+      <c r="OC2" s="4"/>
+      <c r="OD2" s="4"/>
+      <c r="OE2" s="4"/>
+      <c r="OF2" s="4"/>
+      <c r="OG2" s="4"/>
+      <c r="OH2" s="4"/>
+      <c r="OI2" s="4"/>
+      <c r="OJ2" s="4"/>
+      <c r="OK2" s="4"/>
+      <c r="OL2" s="4"/>
+      <c r="OM2" s="4"/>
+      <c r="ON2" s="4"/>
+      <c r="OO2" s="4"/>
+      <c r="OP2" s="4"/>
+      <c r="OQ2" s="4"/>
+      <c r="OR2" s="4"/>
+      <c r="OS2" s="4"/>
+      <c r="OT2" s="4"/>
+      <c r="OU2" s="4"/>
+      <c r="OV2" s="4"/>
+      <c r="OW2" s="4"/>
+      <c r="OX2" s="4"/>
+      <c r="OY2" s="4"/>
+      <c r="OZ2" s="4"/>
+      <c r="PA2" s="4"/>
+      <c r="PB2" s="4"/>
+      <c r="PC2" s="4"/>
+      <c r="PD2" s="4"/>
+      <c r="PE2" s="4"/>
+      <c r="PF2" s="4"/>
+      <c r="PG2" s="4"/>
+      <c r="PH2" s="4"/>
+      <c r="PI2" s="4"/>
+      <c r="PJ2" s="4"/>
+      <c r="PK2" s="4"/>
+      <c r="PL2" s="4"/>
+      <c r="PM2" s="4"/>
+      <c r="PN2" s="4"/>
+      <c r="PO2" s="4"/>
+      <c r="PP2" s="4"/>
+      <c r="PQ2" s="4"/>
+      <c r="PR2" s="4"/>
+      <c r="PS2" s="4"/>
+      <c r="PT2" s="4"/>
+      <c r="PU2" s="4"/>
+      <c r="PV2" s="4"/>
+      <c r="PW2" s="4"/>
+      <c r="PX2" s="4"/>
+      <c r="PY2" s="4"/>
+      <c r="PZ2" s="4"/>
+      <c r="QA2" s="4"/>
+      <c r="QB2" s="4"/>
+      <c r="QC2" s="4"/>
+      <c r="QD2" s="4"/>
+      <c r="QE2" s="4"/>
+      <c r="QF2" s="4"/>
+      <c r="QG2" s="4"/>
+      <c r="QH2" s="4"/>
+      <c r="QI2" s="4"/>
+      <c r="QJ2" s="4"/>
+      <c r="QK2" s="4"/>
+      <c r="QL2" s="4"/>
+      <c r="QM2" s="4"/>
+      <c r="QN2" s="4"/>
+      <c r="QO2" s="4"/>
+      <c r="QP2" s="4"/>
+      <c r="QQ2" s="4"/>
+      <c r="QR2" s="4"/>
+      <c r="QS2" s="4"/>
+      <c r="QT2" s="4"/>
+      <c r="QU2" s="4"/>
+      <c r="QV2" s="4"/>
+      <c r="QW2" s="4"/>
+      <c r="QX2" s="4"/>
+      <c r="QY2" s="4"/>
+      <c r="QZ2" s="4"/>
+      <c r="RA2" s="4"/>
+      <c r="RB2" s="4"/>
+      <c r="RC2" s="4"/>
+      <c r="RD2" s="4"/>
+      <c r="RE2" s="4"/>
+      <c r="RF2" s="4"/>
+      <c r="RG2" s="4"/>
+      <c r="RH2" s="4"/>
+      <c r="RI2" s="4"/>
+      <c r="RJ2" s="4"/>
+      <c r="RK2" s="4"/>
+      <c r="RL2" s="4"/>
+      <c r="RM2" s="4"/>
+      <c r="RN2" s="4"/>
+      <c r="RO2" s="4"/>
+      <c r="RP2" s="4"/>
+      <c r="RQ2" s="4"/>
+      <c r="RR2" s="4"/>
+      <c r="RS2" s="4"/>
+      <c r="RT2" s="4"/>
+      <c r="RU2" s="4"/>
+      <c r="RV2" s="4"/>
+      <c r="RW2" s="4"/>
+      <c r="RX2" s="4"/>
+      <c r="RY2" s="4"/>
+      <c r="RZ2" s="4"/>
+      <c r="SA2" s="4"/>
+      <c r="SB2" s="4"/>
+      <c r="SC2" s="4"/>
+      <c r="SD2" s="4"/>
+      <c r="SE2" s="4"/>
+      <c r="SF2" s="4"/>
+      <c r="SG2" s="4"/>
+      <c r="SH2" s="4"/>
+      <c r="SI2" s="4"/>
+      <c r="SJ2" s="4"/>
+      <c r="SK2" s="4"/>
+      <c r="SL2" s="4"/>
+      <c r="SM2" s="4"/>
+      <c r="SN2" s="4"/>
+      <c r="SO2" s="4"/>
+      <c r="SP2" s="4"/>
+      <c r="SQ2" s="4"/>
+      <c r="SR2" s="4"/>
+      <c r="SS2" s="4"/>
+      <c r="ST2" s="4"/>
+      <c r="SU2" s="4"/>
+      <c r="SV2" s="4"/>
+      <c r="SW2" s="4"/>
+      <c r="SX2" s="4"/>
+      <c r="SY2" s="4"/>
+      <c r="SZ2" s="4"/>
+      <c r="TA2" s="4"/>
+      <c r="TB2" s="4"/>
+      <c r="TC2" s="4"/>
+      <c r="TD2" s="4"/>
+      <c r="TE2" s="4"/>
+      <c r="TF2" s="4"/>
+      <c r="TG2" s="4"/>
+      <c r="TH2" s="4"/>
+      <c r="TI2" s="4"/>
+      <c r="TJ2" s="4"/>
+      <c r="TK2" s="4"/>
+      <c r="TL2" s="4"/>
+      <c r="TM2" s="4"/>
+      <c r="TN2" s="4"/>
+      <c r="TO2" s="4"/>
+      <c r="TP2" s="4"/>
+      <c r="TQ2" s="4"/>
+      <c r="TR2" s="4"/>
+      <c r="TS2" s="4"/>
+      <c r="TT2" s="4"/>
+      <c r="TU2" s="4"/>
+      <c r="TV2" s="4"/>
+      <c r="TW2" s="4"/>
+      <c r="TX2" s="4"/>
+      <c r="TY2" s="4"/>
+      <c r="TZ2" s="4"/>
+      <c r="UA2" s="4"/>
+      <c r="UB2" s="4"/>
+      <c r="UC2" s="4"/>
+      <c r="UD2" s="4"/>
+      <c r="UE2" s="4"/>
+      <c r="UF2" s="4"/>
+      <c r="UG2" s="4"/>
+      <c r="UH2" s="4"/>
+      <c r="UI2" s="4"/>
+      <c r="UJ2" s="4"/>
+      <c r="UK2" s="4"/>
+      <c r="UL2" s="4"/>
+      <c r="UM2" s="4"/>
+      <c r="UN2" s="4"/>
+      <c r="UO2" s="4"/>
+      <c r="UP2" s="4"/>
+      <c r="UQ2" s="4"/>
+      <c r="UR2" s="4"/>
+      <c r="US2" s="4"/>
+      <c r="UT2" s="4"/>
+      <c r="UU2" s="4"/>
+      <c r="UV2" s="4"/>
+      <c r="UW2" s="4"/>
+      <c r="UX2" s="4"/>
+      <c r="UY2" s="4"/>
+      <c r="UZ2" s="4"/>
+      <c r="VA2" s="4"/>
+      <c r="VB2" s="4"/>
+      <c r="VC2" s="4"/>
+      <c r="VD2" s="4"/>
+      <c r="VE2" s="4"/>
+      <c r="VF2" s="4"/>
+      <c r="VG2" s="4"/>
+      <c r="VH2" s="4"/>
+      <c r="VI2" s="4"/>
+      <c r="VJ2" s="4"/>
+      <c r="VK2" s="4"/>
+      <c r="VL2" s="4"/>
+      <c r="VM2" s="4"/>
+      <c r="VN2" s="4"/>
+      <c r="VO2" s="4"/>
+      <c r="VP2" s="4"/>
+      <c r="VQ2" s="4"/>
+      <c r="VR2" s="4"/>
+      <c r="VS2" s="4"/>
+      <c r="VT2" s="4"/>
+      <c r="VU2" s="4"/>
+      <c r="VV2" s="4"/>
+      <c r="VW2" s="4"/>
+      <c r="VX2" s="4"/>
+      <c r="VY2" s="4"/>
+      <c r="VZ2" s="4"/>
+      <c r="WA2" s="4"/>
+      <c r="WB2" s="4"/>
+      <c r="WC2" s="4"/>
+      <c r="WD2" s="4"/>
+      <c r="WE2" s="4"/>
+      <c r="WF2" s="4"/>
+      <c r="WG2" s="4"/>
+      <c r="WH2" s="4"/>
+      <c r="WI2" s="4"/>
+      <c r="WJ2" s="4"/>
+      <c r="WK2" s="4"/>
+      <c r="WL2" s="4"/>
+      <c r="WM2" s="4"/>
+      <c r="WN2" s="4"/>
+      <c r="WO2" s="4"/>
+      <c r="WP2" s="4"/>
+      <c r="WQ2" s="4"/>
+      <c r="WR2" s="4"/>
+      <c r="WS2" s="4"/>
+      <c r="WT2" s="4"/>
+      <c r="WU2" s="4"/>
+      <c r="WV2" s="4"/>
+      <c r="WW2" s="4"/>
+      <c r="WX2" s="4"/>
+      <c r="WY2" s="4"/>
+      <c r="WZ2" s="4"/>
+      <c r="XA2" s="4"/>
+      <c r="XB2" s="4"/>
+      <c r="XC2" s="4"/>
+      <c r="XD2" s="4"/>
+      <c r="XE2" s="4"/>
+      <c r="XF2" s="4"/>
+      <c r="XG2" s="4"/>
+      <c r="XH2" s="4"/>
+      <c r="XI2" s="4"/>
+      <c r="XJ2" s="4"/>
+      <c r="XK2" s="4"/>
+      <c r="XL2" s="4"/>
+      <c r="XM2" s="4"/>
+      <c r="XN2" s="4"/>
+      <c r="XO2" s="4"/>
+      <c r="XP2" s="4"/>
+      <c r="XQ2" s="4"/>
+      <c r="XR2" s="4"/>
+      <c r="XS2" s="4"/>
+      <c r="XT2" s="4"/>
+      <c r="XU2" s="4"/>
+      <c r="XV2" s="4"/>
+      <c r="XW2" s="4"/>
+      <c r="XX2" s="4"/>
+      <c r="XY2" s="4"/>
+      <c r="XZ2" s="4"/>
+      <c r="YA2" s="4"/>
+      <c r="YB2" s="4"/>
+      <c r="YC2" s="4"/>
+      <c r="YD2" s="4"/>
+      <c r="YE2" s="4"/>
+      <c r="YF2" s="4"/>
+      <c r="YG2" s="4"/>
+      <c r="YH2" s="4"/>
+      <c r="YI2" s="4"/>
+      <c r="YJ2" s="4"/>
+      <c r="YK2" s="4"/>
+      <c r="YL2" s="4"/>
+      <c r="YM2" s="4"/>
+      <c r="YN2" s="4"/>
+      <c r="YO2" s="4"/>
+      <c r="YP2" s="4"/>
+      <c r="YQ2" s="4"/>
+      <c r="YR2" s="4"/>
+      <c r="YS2" s="4"/>
+      <c r="YT2" s="4"/>
+      <c r="YU2" s="4"/>
+      <c r="YV2" s="4"/>
+      <c r="YW2" s="4"/>
+      <c r="YX2" s="4"/>
+      <c r="YY2" s="4"/>
+      <c r="YZ2" s="4"/>
+      <c r="ZA2" s="4"/>
+      <c r="ZB2" s="4"/>
+      <c r="ZC2" s="4"/>
+      <c r="ZD2" s="4"/>
+      <c r="ZE2" s="4"/>
+      <c r="ZF2" s="4"/>
+      <c r="ZG2" s="4"/>
+      <c r="ZH2" s="4"/>
+      <c r="ZI2" s="4"/>
+      <c r="ZJ2" s="4"/>
+      <c r="ZK2" s="4"/>
+      <c r="ZL2" s="4"/>
+      <c r="ZM2" s="4"/>
+      <c r="ZN2" s="4"/>
+      <c r="ZO2" s="4"/>
+      <c r="ZP2" s="4"/>
+      <c r="ZQ2" s="4"/>
+      <c r="ZR2" s="4"/>
+      <c r="ZS2" s="4"/>
+      <c r="ZT2" s="4"/>
+      <c r="ZU2" s="4"/>
+      <c r="ZV2" s="4"/>
+      <c r="ZW2" s="4"/>
+      <c r="ZX2" s="4"/>
+      <c r="ZY2" s="4"/>
+      <c r="ZZ2" s="4"/>
+      <c r="AAA2" s="4"/>
+      <c r="AAB2" s="4"/>
+      <c r="AAC2" s="4"/>
+      <c r="AAD2" s="4"/>
+      <c r="AAE2" s="4"/>
+      <c r="AAF2" s="4"/>
+      <c r="AAG2" s="4"/>
+      <c r="AAH2" s="4"/>
+      <c r="AAI2" s="4"/>
+      <c r="AAJ2" s="4"/>
+      <c r="AAK2" s="4"/>
+      <c r="AAL2" s="4"/>
+      <c r="AAM2" s="4"/>
+      <c r="AAN2" s="4"/>
+      <c r="AAO2" s="4"/>
+      <c r="AAP2" s="4"/>
+      <c r="AAQ2" s="4"/>
+      <c r="AAR2" s="4"/>
+      <c r="AAS2" s="4"/>
+      <c r="AAT2" s="4"/>
+      <c r="AAU2" s="4"/>
+      <c r="AAV2" s="4"/>
+      <c r="AAW2" s="4"/>
+      <c r="AAX2" s="4"/>
+      <c r="AAY2" s="4"/>
+      <c r="AAZ2" s="4"/>
+      <c r="ABA2" s="4"/>
+      <c r="ABB2" s="4"/>
+      <c r="ABC2" s="4"/>
+      <c r="ABD2" s="4"/>
+      <c r="ABE2" s="4"/>
+      <c r="ABF2" s="4"/>
+      <c r="ABG2" s="4"/>
+      <c r="ABH2" s="4"/>
+      <c r="ABI2" s="4"/>
+      <c r="ABJ2" s="4"/>
+      <c r="ABK2" s="4"/>
+      <c r="ABL2" s="4"/>
+      <c r="ABM2" s="4"/>
+      <c r="ABN2" s="4"/>
+      <c r="ABO2" s="4"/>
+      <c r="ABP2" s="4"/>
+      <c r="ABQ2" s="4"/>
+      <c r="ABR2" s="4"/>
+      <c r="ABS2" s="4"/>
+      <c r="ABT2" s="4"/>
+      <c r="ABU2" s="4"/>
+      <c r="ABV2" s="4"/>
+      <c r="ABW2" s="4"/>
+      <c r="ABX2" s="4"/>
+      <c r="ABY2" s="4"/>
+      <c r="ABZ2" s="4"/>
+      <c r="ACA2" s="4"/>
+      <c r="ACB2" s="4"/>
+      <c r="ACC2" s="4"/>
+      <c r="ACD2" s="4"/>
+      <c r="ACE2" s="4"/>
+      <c r="ACF2" s="4"/>
+      <c r="ACG2" s="4"/>
+      <c r="ACH2" s="4"/>
+      <c r="ACI2" s="4"/>
+      <c r="ACJ2" s="4"/>
+      <c r="ACK2" s="4"/>
+      <c r="ACL2" s="4"/>
+      <c r="ACM2" s="4"/>
+      <c r="ACN2" s="4"/>
+      <c r="ACO2" s="4"/>
+      <c r="ACP2" s="4"/>
+      <c r="ACQ2" s="4"/>
+      <c r="ACR2" s="4"/>
+      <c r="ACS2" s="4"/>
+      <c r="ACT2" s="4"/>
+      <c r="ACU2" s="4"/>
+      <c r="ACV2" s="4"/>
+      <c r="ACW2" s="4"/>
+      <c r="ACX2" s="4"/>
+      <c r="ACY2" s="4"/>
+      <c r="ACZ2" s="4"/>
+      <c r="ADA2" s="4"/>
+      <c r="ADB2" s="4"/>
+      <c r="ADC2" s="4"/>
+      <c r="ADD2" s="4"/>
+      <c r="ADE2" s="4"/>
+      <c r="ADF2" s="4"/>
+      <c r="ADG2" s="4"/>
+      <c r="ADH2" s="4"/>
+      <c r="ADI2" s="4"/>
+      <c r="ADJ2" s="4"/>
+      <c r="ADK2" s="4"/>
+      <c r="ADL2" s="4"/>
+      <c r="ADM2" s="4"/>
+      <c r="ADN2" s="4"/>
+      <c r="ADO2" s="4"/>
+      <c r="ADP2" s="4"/>
+      <c r="ADQ2" s="4"/>
+      <c r="ADR2" s="4"/>
+      <c r="ADS2" s="4"/>
+      <c r="ADT2" s="4"/>
+      <c r="ADU2" s="4"/>
+      <c r="ADV2" s="4"/>
+      <c r="ADW2" s="4"/>
+      <c r="ADX2" s="4"/>
+      <c r="ADY2" s="4"/>
+      <c r="ADZ2" s="4"/>
+      <c r="AEA2" s="4"/>
+      <c r="AEB2" s="4"/>
+      <c r="AEC2" s="4"/>
+      <c r="AED2" s="4"/>
+      <c r="AEE2" s="4"/>
+      <c r="AEF2" s="4"/>
+      <c r="AEG2" s="4"/>
+      <c r="AEH2" s="4"/>
+      <c r="AEI2" s="4"/>
+      <c r="AEJ2" s="4"/>
+      <c r="AEK2" s="4"/>
+      <c r="AEL2" s="4"/>
+      <c r="AEM2" s="4"/>
+      <c r="AEN2" s="4"/>
+      <c r="AEO2" s="4"/>
+      <c r="AEP2" s="4"/>
+      <c r="AEQ2" s="4"/>
+      <c r="AER2" s="4"/>
+      <c r="AES2" s="4"/>
+      <c r="AET2" s="4"/>
+      <c r="AEU2" s="4"/>
+      <c r="AEV2" s="4"/>
+      <c r="AEW2" s="4"/>
+      <c r="AEX2" s="4"/>
+      <c r="AEY2" s="4"/>
+      <c r="AEZ2" s="4"/>
+      <c r="AFA2" s="4"/>
+      <c r="AFB2" s="4"/>
+      <c r="AFC2" s="4"/>
+      <c r="AFD2" s="4"/>
+      <c r="AFE2" s="4"/>
+      <c r="AFF2" s="4"/>
+      <c r="AFG2" s="4"/>
+      <c r="AFH2" s="4"/>
+      <c r="AFI2" s="4"/>
+      <c r="AFJ2" s="4"/>
+      <c r="AFK2" s="4"/>
+      <c r="AFL2" s="4"/>
+      <c r="AFM2" s="4"/>
+      <c r="AFN2" s="4"/>
+      <c r="AFO2" s="4"/>
+      <c r="AFP2" s="4"/>
+      <c r="AFQ2" s="4"/>
+      <c r="AFR2" s="4"/>
+      <c r="AFS2" s="4"/>
+      <c r="AFT2" s="4"/>
+      <c r="AFU2" s="4"/>
+      <c r="AFV2" s="4"/>
+      <c r="AFW2" s="4"/>
+      <c r="AFX2" s="4"/>
+      <c r="AFY2" s="4"/>
+      <c r="AFZ2" s="4"/>
+      <c r="AGA2" s="4"/>
+      <c r="AGB2" s="4"/>
+      <c r="AGC2" s="4"/>
+      <c r="AGD2" s="4"/>
+      <c r="AGE2" s="4"/>
+      <c r="AGF2" s="4"/>
+      <c r="AGG2" s="4"/>
+      <c r="AGH2" s="4"/>
+      <c r="AGI2" s="4"/>
+      <c r="AGJ2" s="4"/>
+      <c r="AGK2" s="4"/>
+      <c r="AGL2" s="4"/>
+      <c r="AGM2" s="4"/>
+      <c r="AGN2" s="4"/>
+      <c r="AGO2" s="4"/>
+      <c r="AGP2" s="4"/>
+      <c r="AGQ2" s="4"/>
+      <c r="AGR2" s="4"/>
+      <c r="AGS2" s="4"/>
+      <c r="AGT2" s="4"/>
+      <c r="AGU2" s="4"/>
+      <c r="AGV2" s="4"/>
+      <c r="AGW2" s="4"/>
+      <c r="AGX2" s="4"/>
+      <c r="AGY2" s="4"/>
+      <c r="AGZ2" s="4"/>
+      <c r="AHA2" s="4"/>
+      <c r="AHB2" s="4"/>
+      <c r="AHC2" s="4"/>
+      <c r="AHD2" s="4"/>
+      <c r="AHE2" s="4"/>
+      <c r="AHF2" s="4"/>
+      <c r="AHG2" s="4"/>
+      <c r="AHH2" s="4"/>
+      <c r="AHI2" s="4"/>
+      <c r="AHJ2" s="4"/>
+      <c r="AHK2" s="4"/>
+      <c r="AHL2" s="4"/>
+      <c r="AHM2" s="4"/>
+      <c r="AHN2" s="4"/>
+      <c r="AHO2" s="4"/>
+      <c r="AHP2" s="4"/>
+      <c r="AHQ2" s="4"/>
+      <c r="AHR2" s="4"/>
+      <c r="AHS2" s="4"/>
+      <c r="AHT2" s="4"/>
+      <c r="AHU2" s="4"/>
+      <c r="AHV2" s="4"/>
+      <c r="AHW2" s="4"/>
+      <c r="AHX2" s="4"/>
+      <c r="AHY2" s="4"/>
+      <c r="AHZ2" s="4"/>
+      <c r="AIA2" s="4"/>
+      <c r="AIB2" s="4"/>
+      <c r="AIC2" s="4"/>
+      <c r="AID2" s="4"/>
+      <c r="AIE2" s="4"/>
+      <c r="AIF2" s="4"/>
+      <c r="AIG2" s="4"/>
+      <c r="AIH2" s="4"/>
+      <c r="AII2" s="4"/>
+      <c r="AIJ2" s="4"/>
+      <c r="AIK2" s="4"/>
+      <c r="AIL2" s="4"/>
+      <c r="AIM2" s="4"/>
+      <c r="AIN2" s="4"/>
+      <c r="AIO2" s="4"/>
+      <c r="AIP2" s="4"/>
+      <c r="AIQ2" s="4"/>
+      <c r="AIR2" s="4"/>
+      <c r="AIS2" s="4"/>
+      <c r="AIT2" s="4"/>
+      <c r="AIU2" s="4"/>
+      <c r="AIV2" s="4"/>
+      <c r="AIW2" s="4"/>
+      <c r="AIX2" s="4"/>
+      <c r="AIY2" s="4"/>
+      <c r="AIZ2" s="4"/>
+      <c r="AJA2" s="4"/>
+      <c r="AJB2" s="4"/>
+      <c r="AJC2" s="4"/>
+      <c r="AJD2" s="4"/>
+      <c r="AJE2" s="4"/>
+      <c r="AJF2" s="4"/>
+      <c r="AJG2" s="4"/>
+      <c r="AJH2" s="4"/>
+      <c r="AJI2" s="4"/>
+      <c r="AJJ2" s="4"/>
+      <c r="AJK2" s="4"/>
+      <c r="AJL2" s="4"/>
+      <c r="AJM2" s="4"/>
+      <c r="AJN2" s="4"/>
+      <c r="AJO2" s="4"/>
+      <c r="AJP2" s="4"/>
+      <c r="AJQ2" s="4"/>
+      <c r="AJR2" s="4"/>
+      <c r="AJS2" s="4"/>
+      <c r="AJT2" s="4"/>
+      <c r="AJU2" s="4"/>
+      <c r="AJV2" s="4"/>
+      <c r="AJW2" s="4"/>
+      <c r="AJX2" s="4"/>
+      <c r="AJY2" s="4"/>
+      <c r="AJZ2" s="4"/>
+      <c r="AKA2" s="4"/>
+      <c r="AKB2" s="4"/>
+      <c r="AKC2" s="4"/>
+      <c r="AKD2" s="4"/>
+      <c r="AKE2" s="4"/>
+      <c r="AKF2" s="4"/>
+      <c r="AKG2" s="4"/>
+      <c r="AKH2" s="4"/>
+      <c r="AKI2" s="4"/>
+      <c r="AKJ2" s="4"/>
+      <c r="AKK2" s="4"/>
+      <c r="AKL2" s="4"/>
+      <c r="AKM2" s="4"/>
+      <c r="AKN2" s="4"/>
+      <c r="AKO2" s="4"/>
+      <c r="AKP2" s="4"/>
+      <c r="AKQ2" s="4"/>
+      <c r="AKR2" s="4"/>
+      <c r="AKS2" s="4"/>
+      <c r="AKT2" s="4"/>
+      <c r="AKU2" s="4"/>
+      <c r="AKV2" s="4"/>
+      <c r="AKW2" s="4"/>
+      <c r="AKX2" s="4"/>
+      <c r="AKY2" s="4"/>
+      <c r="AKZ2" s="4"/>
+      <c r="ALA2" s="4"/>
+      <c r="ALB2" s="4"/>
+      <c r="ALC2" s="4"/>
+      <c r="ALD2" s="4"/>
+      <c r="ALE2" s="4"/>
+      <c r="ALF2" s="4"/>
+      <c r="ALG2" s="4"/>
+      <c r="ALH2" s="4"/>
+      <c r="ALI2" s="4"/>
+      <c r="ALJ2" s="4"/>
+      <c r="ALK2" s="4"/>
+      <c r="ALL2" s="4"/>
+      <c r="ALM2" s="4"/>
+      <c r="ALN2" s="4"/>
+      <c r="ALO2" s="4"/>
+      <c r="ALP2" s="4"/>
+      <c r="ALQ2" s="4"/>
+      <c r="ALR2" s="4"/>
+      <c r="ALS2" s="4"/>
+      <c r="ALT2" s="4"/>
+      <c r="ALU2" s="4"/>
+      <c r="ALV2" s="4"/>
+      <c r="ALW2" s="4"/>
+      <c r="ALX2" s="4"/>
+      <c r="ALY2" s="4"/>
+      <c r="ALZ2" s="4"/>
+      <c r="AMA2" s="4"/>
+      <c r="AMB2" s="4"/>
+      <c r="AMC2" s="4"/>
+      <c r="AMD2" s="4"/>
+      <c r="AME2" s="4"/>
+      <c r="AMF2" s="4"/>
+      <c r="AMG2" s="4"/>
+      <c r="AMH2" s="4"/>
+      <c r="AMI2" s="4"/>
+      <c r="AMJ2" s="4"/>
+      <c r="AMK2" s="7">
+        <v>26280</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20365456912</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7">
+        <v>685000</v>
+      </c>
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7 1025:1025" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
-        <v>20365456912</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
-        <v>685000</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AMK3" s="6">
-        <v>15000</v>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="4"/>
+      <c r="DF3" s="4"/>
+      <c r="DG3" s="4"/>
+      <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
+      <c r="DP3" s="4"/>
+      <c r="DQ3" s="4"/>
+      <c r="DR3" s="4"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
+      <c r="EB3" s="4"/>
+      <c r="EC3" s="4"/>
+      <c r="ED3" s="4"/>
+      <c r="EE3" s="4"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
+      <c r="EI3" s="4"/>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4"/>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
+      <c r="EO3" s="4"/>
+      <c r="EP3" s="4"/>
+      <c r="EQ3" s="4"/>
+      <c r="ER3" s="4"/>
+      <c r="ES3" s="4"/>
+      <c r="ET3" s="4"/>
+      <c r="EU3" s="4"/>
+      <c r="EV3" s="4"/>
+      <c r="EW3" s="4"/>
+      <c r="EX3" s="4"/>
+      <c r="EY3" s="4"/>
+      <c r="EZ3" s="4"/>
+      <c r="FA3" s="4"/>
+      <c r="FB3" s="4"/>
+      <c r="FC3" s="4"/>
+      <c r="FD3" s="4"/>
+      <c r="FE3" s="4"/>
+      <c r="FF3" s="4"/>
+      <c r="FG3" s="4"/>
+      <c r="FH3" s="4"/>
+      <c r="FI3" s="4"/>
+      <c r="FJ3" s="4"/>
+      <c r="FK3" s="4"/>
+      <c r="FL3" s="4"/>
+      <c r="FM3" s="4"/>
+      <c r="FN3" s="4"/>
+      <c r="FO3" s="4"/>
+      <c r="FP3" s="4"/>
+      <c r="FQ3" s="4"/>
+      <c r="FR3" s="4"/>
+      <c r="FS3" s="4"/>
+      <c r="FT3" s="4"/>
+      <c r="FU3" s="4"/>
+      <c r="FV3" s="4"/>
+      <c r="FW3" s="4"/>
+      <c r="FX3" s="4"/>
+      <c r="FY3" s="4"/>
+      <c r="FZ3" s="4"/>
+      <c r="GA3" s="4"/>
+      <c r="GB3" s="4"/>
+      <c r="GC3" s="4"/>
+      <c r="GD3" s="4"/>
+      <c r="GE3" s="4"/>
+      <c r="GF3" s="4"/>
+      <c r="GG3" s="4"/>
+      <c r="GH3" s="4"/>
+      <c r="GI3" s="4"/>
+      <c r="GJ3" s="4"/>
+      <c r="GK3" s="4"/>
+      <c r="GL3" s="4"/>
+      <c r="GM3" s="4"/>
+      <c r="GN3" s="4"/>
+      <c r="GO3" s="4"/>
+      <c r="GP3" s="4"/>
+      <c r="GQ3" s="4"/>
+      <c r="GR3" s="4"/>
+      <c r="GS3" s="4"/>
+      <c r="GT3" s="4"/>
+      <c r="GU3" s="4"/>
+      <c r="GV3" s="4"/>
+      <c r="GW3" s="4"/>
+      <c r="GX3" s="4"/>
+      <c r="GY3" s="4"/>
+      <c r="GZ3" s="4"/>
+      <c r="HA3" s="4"/>
+      <c r="HB3" s="4"/>
+      <c r="HC3" s="4"/>
+      <c r="HD3" s="4"/>
+      <c r="HE3" s="4"/>
+      <c r="HF3" s="4"/>
+      <c r="HG3" s="4"/>
+      <c r="HH3" s="4"/>
+      <c r="HI3" s="4"/>
+      <c r="HJ3" s="4"/>
+      <c r="HK3" s="4"/>
+      <c r="HL3" s="4"/>
+      <c r="HM3" s="4"/>
+      <c r="HN3" s="4"/>
+      <c r="HO3" s="4"/>
+      <c r="HP3" s="4"/>
+      <c r="HQ3" s="4"/>
+      <c r="HR3" s="4"/>
+      <c r="HS3" s="4"/>
+      <c r="HT3" s="4"/>
+      <c r="HU3" s="4"/>
+      <c r="HV3" s="4"/>
+      <c r="HW3" s="4"/>
+      <c r="HX3" s="4"/>
+      <c r="HY3" s="4"/>
+      <c r="HZ3" s="4"/>
+      <c r="IA3" s="4"/>
+      <c r="IB3" s="4"/>
+      <c r="IC3" s="4"/>
+      <c r="ID3" s="4"/>
+      <c r="IE3" s="4"/>
+      <c r="IF3" s="4"/>
+      <c r="IG3" s="4"/>
+      <c r="IH3" s="4"/>
+      <c r="II3" s="4"/>
+      <c r="IJ3" s="4"/>
+      <c r="IK3" s="4"/>
+      <c r="IL3" s="4"/>
+      <c r="IM3" s="4"/>
+      <c r="IN3" s="4"/>
+      <c r="IO3" s="4"/>
+      <c r="IP3" s="4"/>
+      <c r="IQ3" s="4"/>
+      <c r="IR3" s="4"/>
+      <c r="IS3" s="4"/>
+      <c r="IT3" s="4"/>
+      <c r="IU3" s="4"/>
+      <c r="IV3" s="4"/>
+      <c r="IW3" s="4"/>
+      <c r="IX3" s="4"/>
+      <c r="IY3" s="4"/>
+      <c r="IZ3" s="4"/>
+      <c r="JA3" s="4"/>
+      <c r="JB3" s="4"/>
+      <c r="JC3" s="4"/>
+      <c r="JD3" s="4"/>
+      <c r="JE3" s="4"/>
+      <c r="JF3" s="4"/>
+      <c r="JG3" s="4"/>
+      <c r="JH3" s="4"/>
+      <c r="JI3" s="4"/>
+      <c r="JJ3" s="4"/>
+      <c r="JK3" s="4"/>
+      <c r="JL3" s="4"/>
+      <c r="JM3" s="4"/>
+      <c r="JN3" s="4"/>
+      <c r="JO3" s="4"/>
+      <c r="JP3" s="4"/>
+      <c r="JQ3" s="4"/>
+      <c r="JR3" s="4"/>
+      <c r="JS3" s="4"/>
+      <c r="JT3" s="4"/>
+      <c r="JU3" s="4"/>
+      <c r="JV3" s="4"/>
+      <c r="JW3" s="4"/>
+      <c r="JX3" s="4"/>
+      <c r="JY3" s="4"/>
+      <c r="JZ3" s="4"/>
+      <c r="KA3" s="4"/>
+      <c r="KB3" s="4"/>
+      <c r="KC3" s="4"/>
+      <c r="KD3" s="4"/>
+      <c r="KE3" s="4"/>
+      <c r="KF3" s="4"/>
+      <c r="KG3" s="4"/>
+      <c r="KH3" s="4"/>
+      <c r="KI3" s="4"/>
+      <c r="KJ3" s="4"/>
+      <c r="KK3" s="4"/>
+      <c r="KL3" s="4"/>
+      <c r="KM3" s="4"/>
+      <c r="KN3" s="4"/>
+      <c r="KO3" s="4"/>
+      <c r="KP3" s="4"/>
+      <c r="KQ3" s="4"/>
+      <c r="KR3" s="4"/>
+      <c r="KS3" s="4"/>
+      <c r="KT3" s="4"/>
+      <c r="KU3" s="4"/>
+      <c r="KV3" s="4"/>
+      <c r="KW3" s="4"/>
+      <c r="KX3" s="4"/>
+      <c r="KY3" s="4"/>
+      <c r="KZ3" s="4"/>
+      <c r="LA3" s="4"/>
+      <c r="LB3" s="4"/>
+      <c r="LC3" s="4"/>
+      <c r="LD3" s="4"/>
+      <c r="LE3" s="4"/>
+      <c r="LF3" s="4"/>
+      <c r="LG3" s="4"/>
+      <c r="LH3" s="4"/>
+      <c r="LI3" s="4"/>
+      <c r="LJ3" s="4"/>
+      <c r="LK3" s="4"/>
+      <c r="LL3" s="4"/>
+      <c r="LM3" s="4"/>
+      <c r="LN3" s="4"/>
+      <c r="LO3" s="4"/>
+      <c r="LP3" s="4"/>
+      <c r="LQ3" s="4"/>
+      <c r="LR3" s="4"/>
+      <c r="LS3" s="4"/>
+      <c r="LT3" s="4"/>
+      <c r="LU3" s="4"/>
+      <c r="LV3" s="4"/>
+      <c r="LW3" s="4"/>
+      <c r="LX3" s="4"/>
+      <c r="LY3" s="4"/>
+      <c r="LZ3" s="4"/>
+      <c r="MA3" s="4"/>
+      <c r="MB3" s="4"/>
+      <c r="MC3" s="4"/>
+      <c r="MD3" s="4"/>
+      <c r="ME3" s="4"/>
+      <c r="MF3" s="4"/>
+      <c r="MG3" s="4"/>
+      <c r="MH3" s="4"/>
+      <c r="MI3" s="4"/>
+      <c r="MJ3" s="4"/>
+      <c r="MK3" s="4"/>
+      <c r="ML3" s="4"/>
+      <c r="MM3" s="4"/>
+      <c r="MN3" s="4"/>
+      <c r="MO3" s="4"/>
+      <c r="MP3" s="4"/>
+      <c r="MQ3" s="4"/>
+      <c r="MR3" s="4"/>
+      <c r="MS3" s="4"/>
+      <c r="MT3" s="4"/>
+      <c r="MU3" s="4"/>
+      <c r="MV3" s="4"/>
+      <c r="MW3" s="4"/>
+      <c r="MX3" s="4"/>
+      <c r="MY3" s="4"/>
+      <c r="MZ3" s="4"/>
+      <c r="NA3" s="4"/>
+      <c r="NB3" s="4"/>
+      <c r="NC3" s="4"/>
+      <c r="ND3" s="4"/>
+      <c r="NE3" s="4"/>
+      <c r="NF3" s="4"/>
+      <c r="NG3" s="4"/>
+      <c r="NH3" s="4"/>
+      <c r="NI3" s="4"/>
+      <c r="NJ3" s="4"/>
+      <c r="NK3" s="4"/>
+      <c r="NL3" s="4"/>
+      <c r="NM3" s="4"/>
+      <c r="NN3" s="4"/>
+      <c r="NO3" s="4"/>
+      <c r="NP3" s="4"/>
+      <c r="NQ3" s="4"/>
+      <c r="NR3" s="4"/>
+      <c r="NS3" s="4"/>
+      <c r="NT3" s="4"/>
+      <c r="NU3" s="4"/>
+      <c r="NV3" s="4"/>
+      <c r="NW3" s="4"/>
+      <c r="NX3" s="4"/>
+      <c r="NY3" s="4"/>
+      <c r="NZ3" s="4"/>
+      <c r="OA3" s="4"/>
+      <c r="OB3" s="4"/>
+      <c r="OC3" s="4"/>
+      <c r="OD3" s="4"/>
+      <c r="OE3" s="4"/>
+      <c r="OF3" s="4"/>
+      <c r="OG3" s="4"/>
+      <c r="OH3" s="4"/>
+      <c r="OI3" s="4"/>
+      <c r="OJ3" s="4"/>
+      <c r="OK3" s="4"/>
+      <c r="OL3" s="4"/>
+      <c r="OM3" s="4"/>
+      <c r="ON3" s="4"/>
+      <c r="OO3" s="4"/>
+      <c r="OP3" s="4"/>
+      <c r="OQ3" s="4"/>
+      <c r="OR3" s="4"/>
+      <c r="OS3" s="4"/>
+      <c r="OT3" s="4"/>
+      <c r="OU3" s="4"/>
+      <c r="OV3" s="4"/>
+      <c r="OW3" s="4"/>
+      <c r="OX3" s="4"/>
+      <c r="OY3" s="4"/>
+      <c r="OZ3" s="4"/>
+      <c r="PA3" s="4"/>
+      <c r="PB3" s="4"/>
+      <c r="PC3" s="4"/>
+      <c r="PD3" s="4"/>
+      <c r="PE3" s="4"/>
+      <c r="PF3" s="4"/>
+      <c r="PG3" s="4"/>
+      <c r="PH3" s="4"/>
+      <c r="PI3" s="4"/>
+      <c r="PJ3" s="4"/>
+      <c r="PK3" s="4"/>
+      <c r="PL3" s="4"/>
+      <c r="PM3" s="4"/>
+      <c r="PN3" s="4"/>
+      <c r="PO3" s="4"/>
+      <c r="PP3" s="4"/>
+      <c r="PQ3" s="4"/>
+      <c r="PR3" s="4"/>
+      <c r="PS3" s="4"/>
+      <c r="PT3" s="4"/>
+      <c r="PU3" s="4"/>
+      <c r="PV3" s="4"/>
+      <c r="PW3" s="4"/>
+      <c r="PX3" s="4"/>
+      <c r="PY3" s="4"/>
+      <c r="PZ3" s="4"/>
+      <c r="QA3" s="4"/>
+      <c r="QB3" s="4"/>
+      <c r="QC3" s="4"/>
+      <c r="QD3" s="4"/>
+      <c r="QE3" s="4"/>
+      <c r="QF3" s="4"/>
+      <c r="QG3" s="4"/>
+      <c r="QH3" s="4"/>
+      <c r="QI3" s="4"/>
+      <c r="QJ3" s="4"/>
+      <c r="QK3" s="4"/>
+      <c r="QL3" s="4"/>
+      <c r="QM3" s="4"/>
+      <c r="QN3" s="4"/>
+      <c r="QO3" s="4"/>
+      <c r="QP3" s="4"/>
+      <c r="QQ3" s="4"/>
+      <c r="QR3" s="4"/>
+      <c r="QS3" s="4"/>
+      <c r="QT3" s="4"/>
+      <c r="QU3" s="4"/>
+      <c r="QV3" s="4"/>
+      <c r="QW3" s="4"/>
+      <c r="QX3" s="4"/>
+      <c r="QY3" s="4"/>
+      <c r="QZ3" s="4"/>
+      <c r="RA3" s="4"/>
+      <c r="RB3" s="4"/>
+      <c r="RC3" s="4"/>
+      <c r="RD3" s="4"/>
+      <c r="RE3" s="4"/>
+      <c r="RF3" s="4"/>
+      <c r="RG3" s="4"/>
+      <c r="RH3" s="4"/>
+      <c r="RI3" s="4"/>
+      <c r="RJ3" s="4"/>
+      <c r="RK3" s="4"/>
+      <c r="RL3" s="4"/>
+      <c r="RM3" s="4"/>
+      <c r="RN3" s="4"/>
+      <c r="RO3" s="4"/>
+      <c r="RP3" s="4"/>
+      <c r="RQ3" s="4"/>
+      <c r="RR3" s="4"/>
+      <c r="RS3" s="4"/>
+      <c r="RT3" s="4"/>
+      <c r="RU3" s="4"/>
+      <c r="RV3" s="4"/>
+      <c r="RW3" s="4"/>
+      <c r="RX3" s="4"/>
+      <c r="RY3" s="4"/>
+      <c r="RZ3" s="4"/>
+      <c r="SA3" s="4"/>
+      <c r="SB3" s="4"/>
+      <c r="SC3" s="4"/>
+      <c r="SD3" s="4"/>
+      <c r="SE3" s="4"/>
+      <c r="SF3" s="4"/>
+      <c r="SG3" s="4"/>
+      <c r="SH3" s="4"/>
+      <c r="SI3" s="4"/>
+      <c r="SJ3" s="4"/>
+      <c r="SK3" s="4"/>
+      <c r="SL3" s="4"/>
+      <c r="SM3" s="4"/>
+      <c r="SN3" s="4"/>
+      <c r="SO3" s="4"/>
+      <c r="SP3" s="4"/>
+      <c r="SQ3" s="4"/>
+      <c r="SR3" s="4"/>
+      <c r="SS3" s="4"/>
+      <c r="ST3" s="4"/>
+      <c r="SU3" s="4"/>
+      <c r="SV3" s="4"/>
+      <c r="SW3" s="4"/>
+      <c r="SX3" s="4"/>
+      <c r="SY3" s="4"/>
+      <c r="SZ3" s="4"/>
+      <c r="TA3" s="4"/>
+      <c r="TB3" s="4"/>
+      <c r="TC3" s="4"/>
+      <c r="TD3" s="4"/>
+      <c r="TE3" s="4"/>
+      <c r="TF3" s="4"/>
+      <c r="TG3" s="4"/>
+      <c r="TH3" s="4"/>
+      <c r="TI3" s="4"/>
+      <c r="TJ3" s="4"/>
+      <c r="TK3" s="4"/>
+      <c r="TL3" s="4"/>
+      <c r="TM3" s="4"/>
+      <c r="TN3" s="4"/>
+      <c r="TO3" s="4"/>
+      <c r="TP3" s="4"/>
+      <c r="TQ3" s="4"/>
+      <c r="TR3" s="4"/>
+      <c r="TS3" s="4"/>
+      <c r="TT3" s="4"/>
+      <c r="TU3" s="4"/>
+      <c r="TV3" s="4"/>
+      <c r="TW3" s="4"/>
+      <c r="TX3" s="4"/>
+      <c r="TY3" s="4"/>
+      <c r="TZ3" s="4"/>
+      <c r="UA3" s="4"/>
+      <c r="UB3" s="4"/>
+      <c r="UC3" s="4"/>
+      <c r="UD3" s="4"/>
+      <c r="UE3" s="4"/>
+      <c r="UF3" s="4"/>
+      <c r="UG3" s="4"/>
+      <c r="UH3" s="4"/>
+      <c r="UI3" s="4"/>
+      <c r="UJ3" s="4"/>
+      <c r="UK3" s="4"/>
+      <c r="UL3" s="4"/>
+      <c r="UM3" s="4"/>
+      <c r="UN3" s="4"/>
+      <c r="UO3" s="4"/>
+      <c r="UP3" s="4"/>
+      <c r="UQ3" s="4"/>
+      <c r="UR3" s="4"/>
+      <c r="US3" s="4"/>
+      <c r="UT3" s="4"/>
+      <c r="UU3" s="4"/>
+      <c r="UV3" s="4"/>
+      <c r="UW3" s="4"/>
+      <c r="UX3" s="4"/>
+      <c r="UY3" s="4"/>
+      <c r="UZ3" s="4"/>
+      <c r="VA3" s="4"/>
+      <c r="VB3" s="4"/>
+      <c r="VC3" s="4"/>
+      <c r="VD3" s="4"/>
+      <c r="VE3" s="4"/>
+      <c r="VF3" s="4"/>
+      <c r="VG3" s="4"/>
+      <c r="VH3" s="4"/>
+      <c r="VI3" s="4"/>
+      <c r="VJ3" s="4"/>
+      <c r="VK3" s="4"/>
+      <c r="VL3" s="4"/>
+      <c r="VM3" s="4"/>
+      <c r="VN3" s="4"/>
+      <c r="VO3" s="4"/>
+      <c r="VP3" s="4"/>
+      <c r="VQ3" s="4"/>
+      <c r="VR3" s="4"/>
+      <c r="VS3" s="4"/>
+      <c r="VT3" s="4"/>
+      <c r="VU3" s="4"/>
+      <c r="VV3" s="4"/>
+      <c r="VW3" s="4"/>
+      <c r="VX3" s="4"/>
+      <c r="VY3" s="4"/>
+      <c r="VZ3" s="4"/>
+      <c r="WA3" s="4"/>
+      <c r="WB3" s="4"/>
+      <c r="WC3" s="4"/>
+      <c r="WD3" s="4"/>
+      <c r="WE3" s="4"/>
+      <c r="WF3" s="4"/>
+      <c r="WG3" s="4"/>
+      <c r="WH3" s="4"/>
+      <c r="WI3" s="4"/>
+      <c r="WJ3" s="4"/>
+      <c r="WK3" s="4"/>
+      <c r="WL3" s="4"/>
+      <c r="WM3" s="4"/>
+      <c r="WN3" s="4"/>
+      <c r="WO3" s="4"/>
+      <c r="WP3" s="4"/>
+      <c r="WQ3" s="4"/>
+      <c r="WR3" s="4"/>
+      <c r="WS3" s="4"/>
+      <c r="WT3" s="4"/>
+      <c r="WU3" s="4"/>
+      <c r="WV3" s="4"/>
+      <c r="WW3" s="4"/>
+      <c r="WX3" s="4"/>
+      <c r="WY3" s="4"/>
+      <c r="WZ3" s="4"/>
+      <c r="XA3" s="4"/>
+      <c r="XB3" s="4"/>
+      <c r="XC3" s="4"/>
+      <c r="XD3" s="4"/>
+      <c r="XE3" s="4"/>
+      <c r="XF3" s="4"/>
+      <c r="XG3" s="4"/>
+      <c r="XH3" s="4"/>
+      <c r="XI3" s="4"/>
+      <c r="XJ3" s="4"/>
+      <c r="XK3" s="4"/>
+      <c r="XL3" s="4"/>
+      <c r="XM3" s="4"/>
+      <c r="XN3" s="4"/>
+      <c r="XO3" s="4"/>
+      <c r="XP3" s="4"/>
+      <c r="XQ3" s="4"/>
+      <c r="XR3" s="4"/>
+      <c r="XS3" s="4"/>
+      <c r="XT3" s="4"/>
+      <c r="XU3" s="4"/>
+      <c r="XV3" s="4"/>
+      <c r="XW3" s="4"/>
+      <c r="XX3" s="4"/>
+      <c r="XY3" s="4"/>
+      <c r="XZ3" s="4"/>
+      <c r="YA3" s="4"/>
+      <c r="YB3" s="4"/>
+      <c r="YC3" s="4"/>
+      <c r="YD3" s="4"/>
+      <c r="YE3" s="4"/>
+      <c r="YF3" s="4"/>
+      <c r="YG3" s="4"/>
+      <c r="YH3" s="4"/>
+      <c r="YI3" s="4"/>
+      <c r="YJ3" s="4"/>
+      <c r="YK3" s="4"/>
+      <c r="YL3" s="4"/>
+      <c r="YM3" s="4"/>
+      <c r="YN3" s="4"/>
+      <c r="YO3" s="4"/>
+      <c r="YP3" s="4"/>
+      <c r="YQ3" s="4"/>
+      <c r="YR3" s="4"/>
+      <c r="YS3" s="4"/>
+      <c r="YT3" s="4"/>
+      <c r="YU3" s="4"/>
+      <c r="YV3" s="4"/>
+      <c r="YW3" s="4"/>
+      <c r="YX3" s="4"/>
+      <c r="YY3" s="4"/>
+      <c r="YZ3" s="4"/>
+      <c r="ZA3" s="4"/>
+      <c r="ZB3" s="4"/>
+      <c r="ZC3" s="4"/>
+      <c r="ZD3" s="4"/>
+      <c r="ZE3" s="4"/>
+      <c r="ZF3" s="4"/>
+      <c r="ZG3" s="4"/>
+      <c r="ZH3" s="4"/>
+      <c r="ZI3" s="4"/>
+      <c r="ZJ3" s="4"/>
+      <c r="ZK3" s="4"/>
+      <c r="ZL3" s="4"/>
+      <c r="ZM3" s="4"/>
+      <c r="ZN3" s="4"/>
+      <c r="ZO3" s="4"/>
+      <c r="ZP3" s="4"/>
+      <c r="ZQ3" s="4"/>
+      <c r="ZR3" s="4"/>
+      <c r="ZS3" s="4"/>
+      <c r="ZT3" s="4"/>
+      <c r="ZU3" s="4"/>
+      <c r="ZV3" s="4"/>
+      <c r="ZW3" s="4"/>
+      <c r="ZX3" s="4"/>
+      <c r="ZY3" s="4"/>
+      <c r="ZZ3" s="4"/>
+      <c r="AAA3" s="4"/>
+      <c r="AAB3" s="4"/>
+      <c r="AAC3" s="4"/>
+      <c r="AAD3" s="4"/>
+      <c r="AAE3" s="4"/>
+      <c r="AAF3" s="4"/>
+      <c r="AAG3" s="4"/>
+      <c r="AAH3" s="4"/>
+      <c r="AAI3" s="4"/>
+      <c r="AAJ3" s="4"/>
+      <c r="AAK3" s="4"/>
+      <c r="AAL3" s="4"/>
+      <c r="AAM3" s="4"/>
+      <c r="AAN3" s="4"/>
+      <c r="AAO3" s="4"/>
+      <c r="AAP3" s="4"/>
+      <c r="AAQ3" s="4"/>
+      <c r="AAR3" s="4"/>
+      <c r="AAS3" s="4"/>
+      <c r="AAT3" s="4"/>
+      <c r="AAU3" s="4"/>
+      <c r="AAV3" s="4"/>
+      <c r="AAW3" s="4"/>
+      <c r="AAX3" s="4"/>
+      <c r="AAY3" s="4"/>
+      <c r="AAZ3" s="4"/>
+      <c r="ABA3" s="4"/>
+      <c r="ABB3" s="4"/>
+      <c r="ABC3" s="4"/>
+      <c r="ABD3" s="4"/>
+      <c r="ABE3" s="4"/>
+      <c r="ABF3" s="4"/>
+      <c r="ABG3" s="4"/>
+      <c r="ABH3" s="4"/>
+      <c r="ABI3" s="4"/>
+      <c r="ABJ3" s="4"/>
+      <c r="ABK3" s="4"/>
+      <c r="ABL3" s="4"/>
+      <c r="ABM3" s="4"/>
+      <c r="ABN3" s="4"/>
+      <c r="ABO3" s="4"/>
+      <c r="ABP3" s="4"/>
+      <c r="ABQ3" s="4"/>
+      <c r="ABR3" s="4"/>
+      <c r="ABS3" s="4"/>
+      <c r="ABT3" s="4"/>
+      <c r="ABU3" s="4"/>
+      <c r="ABV3" s="4"/>
+      <c r="ABW3" s="4"/>
+      <c r="ABX3" s="4"/>
+      <c r="ABY3" s="4"/>
+      <c r="ABZ3" s="4"/>
+      <c r="ACA3" s="4"/>
+      <c r="ACB3" s="4"/>
+      <c r="ACC3" s="4"/>
+      <c r="ACD3" s="4"/>
+      <c r="ACE3" s="4"/>
+      <c r="ACF3" s="4"/>
+      <c r="ACG3" s="4"/>
+      <c r="ACH3" s="4"/>
+      <c r="ACI3" s="4"/>
+      <c r="ACJ3" s="4"/>
+      <c r="ACK3" s="4"/>
+      <c r="ACL3" s="4"/>
+      <c r="ACM3" s="4"/>
+      <c r="ACN3" s="4"/>
+      <c r="ACO3" s="4"/>
+      <c r="ACP3" s="4"/>
+      <c r="ACQ3" s="4"/>
+      <c r="ACR3" s="4"/>
+      <c r="ACS3" s="4"/>
+      <c r="ACT3" s="4"/>
+      <c r="ACU3" s="4"/>
+      <c r="ACV3" s="4"/>
+      <c r="ACW3" s="4"/>
+      <c r="ACX3" s="4"/>
+      <c r="ACY3" s="4"/>
+      <c r="ACZ3" s="4"/>
+      <c r="ADA3" s="4"/>
+      <c r="ADB3" s="4"/>
+      <c r="ADC3" s="4"/>
+      <c r="ADD3" s="4"/>
+      <c r="ADE3" s="4"/>
+      <c r="ADF3" s="4"/>
+      <c r="ADG3" s="4"/>
+      <c r="ADH3" s="4"/>
+      <c r="ADI3" s="4"/>
+      <c r="ADJ3" s="4"/>
+      <c r="ADK3" s="4"/>
+      <c r="ADL3" s="4"/>
+      <c r="ADM3" s="4"/>
+      <c r="ADN3" s="4"/>
+      <c r="ADO3" s="4"/>
+      <c r="ADP3" s="4"/>
+      <c r="ADQ3" s="4"/>
+      <c r="ADR3" s="4"/>
+      <c r="ADS3" s="4"/>
+      <c r="ADT3" s="4"/>
+      <c r="ADU3" s="4"/>
+      <c r="ADV3" s="4"/>
+      <c r="ADW3" s="4"/>
+      <c r="ADX3" s="4"/>
+      <c r="ADY3" s="4"/>
+      <c r="ADZ3" s="4"/>
+      <c r="AEA3" s="4"/>
+      <c r="AEB3" s="4"/>
+      <c r="AEC3" s="4"/>
+      <c r="AED3" s="4"/>
+      <c r="AEE3" s="4"/>
+      <c r="AEF3" s="4"/>
+      <c r="AEG3" s="4"/>
+      <c r="AEH3" s="4"/>
+      <c r="AEI3" s="4"/>
+      <c r="AEJ3" s="4"/>
+      <c r="AEK3" s="4"/>
+      <c r="AEL3" s="4"/>
+      <c r="AEM3" s="4"/>
+      <c r="AEN3" s="4"/>
+      <c r="AEO3" s="4"/>
+      <c r="AEP3" s="4"/>
+      <c r="AEQ3" s="4"/>
+      <c r="AER3" s="4"/>
+      <c r="AES3" s="4"/>
+      <c r="AET3" s="4"/>
+      <c r="AEU3" s="4"/>
+      <c r="AEV3" s="4"/>
+      <c r="AEW3" s="4"/>
+      <c r="AEX3" s="4"/>
+      <c r="AEY3" s="4"/>
+      <c r="AEZ3" s="4"/>
+      <c r="AFA3" s="4"/>
+      <c r="AFB3" s="4"/>
+      <c r="AFC3" s="4"/>
+      <c r="AFD3" s="4"/>
+      <c r="AFE3" s="4"/>
+      <c r="AFF3" s="4"/>
+      <c r="AFG3" s="4"/>
+      <c r="AFH3" s="4"/>
+      <c r="AFI3" s="4"/>
+      <c r="AFJ3" s="4"/>
+      <c r="AFK3" s="4"/>
+      <c r="AFL3" s="4"/>
+      <c r="AFM3" s="4"/>
+      <c r="AFN3" s="4"/>
+      <c r="AFO3" s="4"/>
+      <c r="AFP3" s="4"/>
+      <c r="AFQ3" s="4"/>
+      <c r="AFR3" s="4"/>
+      <c r="AFS3" s="4"/>
+      <c r="AFT3" s="4"/>
+      <c r="AFU3" s="4"/>
+      <c r="AFV3" s="4"/>
+      <c r="AFW3" s="4"/>
+      <c r="AFX3" s="4"/>
+      <c r="AFY3" s="4"/>
+      <c r="AFZ3" s="4"/>
+      <c r="AGA3" s="4"/>
+      <c r="AGB3" s="4"/>
+      <c r="AGC3" s="4"/>
+      <c r="AGD3" s="4"/>
+      <c r="AGE3" s="4"/>
+      <c r="AGF3" s="4"/>
+      <c r="AGG3" s="4"/>
+      <c r="AGH3" s="4"/>
+      <c r="AGI3" s="4"/>
+      <c r="AGJ3" s="4"/>
+      <c r="AGK3" s="4"/>
+      <c r="AGL3" s="4"/>
+      <c r="AGM3" s="4"/>
+      <c r="AGN3" s="4"/>
+      <c r="AGO3" s="4"/>
+      <c r="AGP3" s="4"/>
+      <c r="AGQ3" s="4"/>
+      <c r="AGR3" s="4"/>
+      <c r="AGS3" s="4"/>
+      <c r="AGT3" s="4"/>
+      <c r="AGU3" s="4"/>
+      <c r="AGV3" s="4"/>
+      <c r="AGW3" s="4"/>
+      <c r="AGX3" s="4"/>
+      <c r="AGY3" s="4"/>
+      <c r="AGZ3" s="4"/>
+      <c r="AHA3" s="4"/>
+      <c r="AHB3" s="4"/>
+      <c r="AHC3" s="4"/>
+      <c r="AHD3" s="4"/>
+      <c r="AHE3" s="4"/>
+      <c r="AHF3" s="4"/>
+      <c r="AHG3" s="4"/>
+      <c r="AHH3" s="4"/>
+      <c r="AHI3" s="4"/>
+      <c r="AHJ3" s="4"/>
+      <c r="AHK3" s="4"/>
+      <c r="AHL3" s="4"/>
+      <c r="AHM3" s="4"/>
+      <c r="AHN3" s="4"/>
+      <c r="AHO3" s="4"/>
+      <c r="AHP3" s="4"/>
+      <c r="AHQ3" s="4"/>
+      <c r="AHR3" s="4"/>
+      <c r="AHS3" s="4"/>
+      <c r="AHT3" s="4"/>
+      <c r="AHU3" s="4"/>
+      <c r="AHV3" s="4"/>
+      <c r="AHW3" s="4"/>
+      <c r="AHX3" s="4"/>
+      <c r="AHY3" s="4"/>
+      <c r="AHZ3" s="4"/>
+      <c r="AIA3" s="4"/>
+      <c r="AIB3" s="4"/>
+      <c r="AIC3" s="4"/>
+      <c r="AID3" s="4"/>
+      <c r="AIE3" s="4"/>
+      <c r="AIF3" s="4"/>
+      <c r="AIG3" s="4"/>
+      <c r="AIH3" s="4"/>
+      <c r="AII3" s="4"/>
+      <c r="AIJ3" s="4"/>
+      <c r="AIK3" s="4"/>
+      <c r="AIL3" s="4"/>
+      <c r="AIM3" s="4"/>
+      <c r="AIN3" s="4"/>
+      <c r="AIO3" s="4"/>
+      <c r="AIP3" s="4"/>
+      <c r="AIQ3" s="4"/>
+      <c r="AIR3" s="4"/>
+      <c r="AIS3" s="4"/>
+      <c r="AIT3" s="4"/>
+      <c r="AIU3" s="4"/>
+      <c r="AIV3" s="4"/>
+      <c r="AIW3" s="4"/>
+      <c r="AIX3" s="4"/>
+      <c r="AIY3" s="4"/>
+      <c r="AIZ3" s="4"/>
+      <c r="AJA3" s="4"/>
+      <c r="AJB3" s="4"/>
+      <c r="AJC3" s="4"/>
+      <c r="AJD3" s="4"/>
+      <c r="AJE3" s="4"/>
+      <c r="AJF3" s="4"/>
+      <c r="AJG3" s="4"/>
+      <c r="AJH3" s="4"/>
+      <c r="AJI3" s="4"/>
+      <c r="AJJ3" s="4"/>
+      <c r="AJK3" s="4"/>
+      <c r="AJL3" s="4"/>
+      <c r="AJM3" s="4"/>
+      <c r="AJN3" s="4"/>
+      <c r="AJO3" s="4"/>
+      <c r="AJP3" s="4"/>
+      <c r="AJQ3" s="4"/>
+      <c r="AJR3" s="4"/>
+      <c r="AJS3" s="4"/>
+      <c r="AJT3" s="4"/>
+      <c r="AJU3" s="4"/>
+      <c r="AJV3" s="4"/>
+      <c r="AJW3" s="4"/>
+      <c r="AJX3" s="4"/>
+      <c r="AJY3" s="4"/>
+      <c r="AJZ3" s="4"/>
+      <c r="AKA3" s="4"/>
+      <c r="AKB3" s="4"/>
+      <c r="AKC3" s="4"/>
+      <c r="AKD3" s="4"/>
+      <c r="AKE3" s="4"/>
+      <c r="AKF3" s="4"/>
+      <c r="AKG3" s="4"/>
+      <c r="AKH3" s="4"/>
+      <c r="AKI3" s="4"/>
+      <c r="AKJ3" s="4"/>
+      <c r="AKK3" s="4"/>
+      <c r="AKL3" s="4"/>
+      <c r="AKM3" s="4"/>
+      <c r="AKN3" s="4"/>
+      <c r="AKO3" s="4"/>
+      <c r="AKP3" s="4"/>
+      <c r="AKQ3" s="4"/>
+      <c r="AKR3" s="4"/>
+      <c r="AKS3" s="4"/>
+      <c r="AKT3" s="4"/>
+      <c r="AKU3" s="4"/>
+      <c r="AKV3" s="4"/>
+      <c r="AKW3" s="4"/>
+      <c r="AKX3" s="4"/>
+      <c r="AKY3" s="4"/>
+      <c r="AKZ3" s="4"/>
+      <c r="ALA3" s="4"/>
+      <c r="ALB3" s="4"/>
+      <c r="ALC3" s="4"/>
+      <c r="ALD3" s="4"/>
+      <c r="ALE3" s="4"/>
+      <c r="ALF3" s="4"/>
+      <c r="ALG3" s="4"/>
+      <c r="ALH3" s="4"/>
+      <c r="ALI3" s="4"/>
+      <c r="ALJ3" s="4"/>
+      <c r="ALK3" s="4"/>
+      <c r="ALL3" s="4"/>
+      <c r="ALM3" s="4"/>
+      <c r="ALN3" s="4"/>
+      <c r="ALO3" s="4"/>
+      <c r="ALP3" s="4"/>
+      <c r="ALQ3" s="4"/>
+      <c r="ALR3" s="4"/>
+      <c r="ALS3" s="4"/>
+      <c r="ALT3" s="4"/>
+      <c r="ALU3" s="4"/>
+      <c r="ALV3" s="4"/>
+      <c r="ALW3" s="4"/>
+      <c r="ALX3" s="4"/>
+      <c r="ALY3" s="4"/>
+      <c r="ALZ3" s="4"/>
+      <c r="AMA3" s="4"/>
+      <c r="AMB3" s="4"/>
+      <c r="AMC3" s="4"/>
+      <c r="AMD3" s="4"/>
+      <c r="AME3" s="4"/>
+      <c r="AMF3" s="4"/>
+      <c r="AMG3" s="4"/>
+      <c r="AMH3" s="4"/>
+      <c r="AMI3" s="4"/>
+      <c r="AMJ3" s="4"/>
+      <c r="AMK3" s="7">
+        <v>26280</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{F73354AD-E196-4095-AA91-193198DC0F9A}">
-      <formula1>"Si, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E1:E1048576" xr:uid="{107EF465-1CE8-4E5E-A407-2AF277E15F66}">
-      <formula1>"Vigilador General,Vigilador Bombero,Administrativo,Vigilador Principal,Verificador Evento,Operador de monitoreo,Guía Técnico,Instalador de elementos de seguridad electrónica,Controlador de admisión y permanencia en gral."</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/importar-ejemplo.xlsx
+++ b/public/importar-ejemplo.xlsx
@@ -41,7 +41,7 @@
     <t>Adicionales</t>
   </si>
   <si>
-    <t>Ad. Remunerativo</t>
+    <t>Suma no remunerativa</t>
   </si>
   <si>
     <t>Juan</t>
@@ -2560,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>26280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
